--- a/output/Mozambique_formatted.xlsx
+++ b/output/Mozambique_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -1051,12 +1051,6 @@
     <t xml:space="preserve">SM190217</t>
   </si>
   <si>
-    <t xml:space="preserve">United Nations Children's Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life saving WASH response to Kenneth response</t>
-  </si>
-  <si>
     <t xml:space="preserve">Immediate Provision of Temporary Emergency Shelter and Non-Food Items for Flood and Cyclone Kenneth Affected Populations</t>
   </si>
   <si>
@@ -1352,6 +1346,9 @@
     <t xml:space="preserve">Providing Critical Life-Saving Shelter/NFI Interventions to Cyclone Affected Persons in Mozambique</t>
   </si>
   <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strengthening the Reference Groups for Child Protection and Combating Trafficking in Persons in Sofala and Manica Provinces, Mozambique</t>
   </si>
   <si>
@@ -1395,12 +1392,6 @@
   </si>
   <si>
     <t xml:space="preserve">WASH assistance for the cyclone Idai affected population in Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT Alliance / Church of Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improved access to WASH, NFIs, services and increased access to hygiene information, emergency shelters, strengthening of community based psychosocial support</t>
   </si>
   <si>
     <t xml:space="preserve">7200AA19C00054</t>
@@ -21987,29 +21978,29 @@
         <v>43</v>
       </c>
       <c r="E182" t="s">
-        <v>344</v>
+        <v>123</v>
       </c>
       <c r="F182"/>
       <c r="G182" s="1" t="n">
-        <v>43613</v>
+        <v>43609</v>
       </c>
       <c r="H182" s="1" t="n">
-        <v>43656</v>
+        <v>43615</v>
       </c>
       <c r="I182" t="s">
+        <v>344</v>
+      </c>
+      <c r="J182" t="s">
         <v>345</v>
-      </c>
-      <c r="J182" t="s">
-        <v>52</v>
       </c>
       <c r="K182"/>
       <c r="L182"/>
       <c r="M182" t="n">
-        <v>0.121747</v>
+        <v>2.303409</v>
       </c>
       <c r="N182"/>
       <c r="O182" t="n">
-        <v>0.121747</v>
+        <v>2.303409</v>
       </c>
       <c r="P182" t="n">
         <v>1</v>
@@ -22027,7 +22018,7 @@
         <v>0</v>
       </c>
       <c r="U182" t="n">
-        <v>0.121747</v>
+        <v>2.303409</v>
       </c>
       <c r="V182" t="n">
         <v>0</v>
@@ -22069,7 +22060,7 @@
         <v>0</v>
       </c>
       <c r="AI182" t="n">
-        <v>0.121747</v>
+        <v>2.303409</v>
       </c>
       <c r="AJ182"/>
       <c r="AK182"/>
@@ -22078,7 +22069,7 @@
         <v>0</v>
       </c>
       <c r="AN182" t="n">
-        <v>195381</v>
+        <v>192200</v>
       </c>
     </row>
     <row r="183">
@@ -22113,11 +22104,11 @@
       <c r="K183"/>
       <c r="L183"/>
       <c r="M183" t="n">
-        <v>2.303409</v>
+        <v>0.15</v>
       </c>
       <c r="N183"/>
       <c r="O183" t="n">
-        <v>2.303409</v>
+        <v>0.15</v>
       </c>
       <c r="P183" t="n">
         <v>1</v>
@@ -22135,7 +22126,7 @@
         <v>0</v>
       </c>
       <c r="U183" t="n">
-        <v>2.303409</v>
+        <v>0.15</v>
       </c>
       <c r="V183" t="n">
         <v>0</v>
@@ -22177,7 +22168,7 @@
         <v>0</v>
       </c>
       <c r="AI183" t="n">
-        <v>2.303409</v>
+        <v>0.15</v>
       </c>
       <c r="AJ183"/>
       <c r="AK183"/>
@@ -22186,7 +22177,7 @@
         <v>0</v>
       </c>
       <c r="AN183" t="n">
-        <v>192200</v>
+        <v>192201</v>
       </c>
     </row>
     <row r="184">
@@ -22207,10 +22198,10 @@
       </c>
       <c r="F184"/>
       <c r="G184" s="1" t="n">
-        <v>43609</v>
+        <v>43608</v>
       </c>
       <c r="H184" s="1" t="n">
-        <v>43615</v>
+        <v>43826</v>
       </c>
       <c r="I184" t="s">
         <v>348</v>
@@ -22221,11 +22212,11 @@
       <c r="K184"/>
       <c r="L184"/>
       <c r="M184" t="n">
-        <v>0.15</v>
+        <v>1.739927</v>
       </c>
       <c r="N184"/>
       <c r="O184" t="n">
-        <v>0.15</v>
+        <v>1.739927</v>
       </c>
       <c r="P184" t="n">
         <v>1</v>
@@ -22243,7 +22234,7 @@
         <v>0</v>
       </c>
       <c r="U184" t="n">
-        <v>0.15</v>
+        <v>1.739927</v>
       </c>
       <c r="V184" t="n">
         <v>0</v>
@@ -22285,7 +22276,7 @@
         <v>0</v>
       </c>
       <c r="AI184" t="n">
-        <v>0.15</v>
+        <v>1.739927</v>
       </c>
       <c r="AJ184"/>
       <c r="AK184"/>
@@ -22294,7 +22285,7 @@
         <v>0</v>
       </c>
       <c r="AN184" t="n">
-        <v>192201</v>
+        <v>191611</v>
       </c>
     </row>
     <row r="185">
@@ -22311,14 +22302,14 @@
         <v>43</v>
       </c>
       <c r="E185" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F185"/>
       <c r="G185" s="1" t="n">
-        <v>43608</v>
+        <v>43616</v>
       </c>
       <c r="H185" s="1" t="n">
-        <v>43826</v>
+        <v>43619</v>
       </c>
       <c r="I185" t="s">
         <v>350</v>
@@ -22329,11 +22320,11 @@
       <c r="K185"/>
       <c r="L185"/>
       <c r="M185" t="n">
-        <v>1.739927</v>
+        <v>6.043726</v>
       </c>
       <c r="N185"/>
       <c r="O185" t="n">
-        <v>1.739927</v>
+        <v>6.043726</v>
       </c>
       <c r="P185" t="n">
         <v>1</v>
@@ -22351,7 +22342,7 @@
         <v>0</v>
       </c>
       <c r="U185" t="n">
-        <v>1.739927</v>
+        <v>6.043726</v>
       </c>
       <c r="V185" t="n">
         <v>0</v>
@@ -22393,7 +22384,7 @@
         <v>0</v>
       </c>
       <c r="AI185" t="n">
-        <v>1.739927</v>
+        <v>6.043726</v>
       </c>
       <c r="AJ185"/>
       <c r="AK185"/>
@@ -22402,7 +22393,7 @@
         <v>0</v>
       </c>
       <c r="AN185" t="n">
-        <v>191611</v>
+        <v>189103</v>
       </c>
     </row>
     <row r="186">
@@ -22426,7 +22417,7 @@
         <v>43616</v>
       </c>
       <c r="H186" s="1" t="n">
-        <v>43619</v>
+        <v>43633</v>
       </c>
       <c r="I186" t="s">
         <v>352</v>
@@ -22437,11 +22428,11 @@
       <c r="K186"/>
       <c r="L186"/>
       <c r="M186" t="n">
-        <v>6.043726</v>
+        <v>2.499955</v>
       </c>
       <c r="N186"/>
       <c r="O186" t="n">
-        <v>6.043726</v>
+        <v>2.499955</v>
       </c>
       <c r="P186" t="n">
         <v>1</v>
@@ -22459,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="U186" t="n">
-        <v>6.043726</v>
+        <v>2.499955</v>
       </c>
       <c r="V186" t="n">
         <v>0</v>
@@ -22501,7 +22492,7 @@
         <v>0</v>
       </c>
       <c r="AI186" t="n">
-        <v>6.043726</v>
+        <v>2.499955</v>
       </c>
       <c r="AJ186"/>
       <c r="AK186"/>
@@ -22510,7 +22501,7 @@
         <v>0</v>
       </c>
       <c r="AN186" t="n">
-        <v>189103</v>
+        <v>190900</v>
       </c>
     </row>
     <row r="187">
@@ -22534,7 +22525,7 @@
         <v>43616</v>
       </c>
       <c r="H187" s="1" t="n">
-        <v>43633</v>
+        <v>43682</v>
       </c>
       <c r="I187" t="s">
         <v>354</v>
@@ -22545,11 +22536,11 @@
       <c r="K187"/>
       <c r="L187"/>
       <c r="M187" t="n">
-        <v>2.499955</v>
+        <v>0.750127</v>
       </c>
       <c r="N187"/>
       <c r="O187" t="n">
-        <v>2.499955</v>
+        <v>0.750127</v>
       </c>
       <c r="P187" t="n">
         <v>1</v>
@@ -22567,7 +22558,7 @@
         <v>0</v>
       </c>
       <c r="U187" t="n">
-        <v>2.499955</v>
+        <v>0.750127</v>
       </c>
       <c r="V187" t="n">
         <v>0</v>
@@ -22609,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="AI187" t="n">
-        <v>2.499955</v>
+        <v>0.750127</v>
       </c>
       <c r="AJ187"/>
       <c r="AK187"/>
@@ -22618,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="AN187" t="n">
-        <v>190900</v>
+        <v>192686</v>
       </c>
     </row>
     <row r="188">
@@ -22635,14 +22626,14 @@
         <v>43</v>
       </c>
       <c r="E188" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F188"/>
       <c r="G188" s="1" t="n">
         <v>43616</v>
       </c>
       <c r="H188" s="1" t="n">
-        <v>43682</v>
+        <v>43623</v>
       </c>
       <c r="I188" t="s">
         <v>356</v>
@@ -22650,14 +22641,18 @@
       <c r="J188" t="s">
         <v>357</v>
       </c>
-      <c r="K188"/>
-      <c r="L188"/>
+      <c r="K188" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1.021</v>
+      </c>
       <c r="M188" t="n">
-        <v>0.750127</v>
+        <v>0.053869</v>
       </c>
       <c r="N188"/>
       <c r="O188" t="n">
-        <v>0.750127</v>
+        <v>0.053869</v>
       </c>
       <c r="P188" t="n">
         <v>1</v>
@@ -22675,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="U188" t="n">
-        <v>0.750127</v>
+        <v>0.053869</v>
       </c>
       <c r="V188" t="n">
         <v>0</v>
@@ -22717,7 +22712,7 @@
         <v>0</v>
       </c>
       <c r="AI188" t="n">
-        <v>0.750127</v>
+        <v>0.053869</v>
       </c>
       <c r="AJ188"/>
       <c r="AK188"/>
@@ -22726,7 +22721,7 @@
         <v>0</v>
       </c>
       <c r="AN188" t="n">
-        <v>192686</v>
+        <v>193045</v>
       </c>
     </row>
     <row r="189">
@@ -22743,33 +22738,29 @@
         <v>43</v>
       </c>
       <c r="E189" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="F189"/>
       <c r="G189" s="1" t="n">
         <v>43616</v>
       </c>
       <c r="H189" s="1" t="n">
-        <v>43623</v>
+        <v>43754</v>
       </c>
       <c r="I189" t="s">
+        <v>137</v>
+      </c>
+      <c r="J189" t="s">
         <v>358</v>
       </c>
-      <c r="J189" t="s">
-        <v>359</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="L189" t="n">
-        <v>1.021</v>
-      </c>
+      <c r="K189"/>
+      <c r="L189"/>
       <c r="M189" t="n">
-        <v>0.053869</v>
+        <v>0.005587</v>
       </c>
       <c r="N189"/>
       <c r="O189" t="n">
-        <v>0.053869</v>
+        <v>0.005587</v>
       </c>
       <c r="P189" t="n">
         <v>1</v>
@@ -22787,7 +22778,7 @@
         <v>0</v>
       </c>
       <c r="U189" t="n">
-        <v>0.053869</v>
+        <v>0.005587</v>
       </c>
       <c r="V189" t="n">
         <v>0</v>
@@ -22829,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="AI189" t="n">
-        <v>0.053869</v>
+        <v>0.005587</v>
       </c>
       <c r="AJ189"/>
       <c r="AK189"/>
@@ -22838,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="AN189" t="n">
-        <v>193045</v>
+        <v>199350</v>
       </c>
     </row>
     <row r="190">
@@ -22855,29 +22846,29 @@
         <v>43</v>
       </c>
       <c r="E190" t="s">
-        <v>193</v>
+        <v>359</v>
       </c>
       <c r="F190"/>
       <c r="G190" s="1" t="n">
-        <v>43616</v>
+        <v>43617</v>
       </c>
       <c r="H190" s="1" t="n">
-        <v>43754</v>
+        <v>43752</v>
       </c>
       <c r="I190" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="J190" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K190"/>
       <c r="L190"/>
       <c r="M190" t="n">
-        <v>0.005587</v>
+        <v>0.278087</v>
       </c>
       <c r="N190"/>
       <c r="O190" t="n">
-        <v>0.005587</v>
+        <v>0.278087</v>
       </c>
       <c r="P190" t="n">
         <v>1</v>
@@ -22895,10 +22886,10 @@
         <v>0</v>
       </c>
       <c r="U190" t="n">
-        <v>0.005587</v>
+        <v>0</v>
       </c>
       <c r="V190" t="n">
-        <v>0</v>
+        <v>0.278087</v>
       </c>
       <c r="W190" t="n">
         <v>0</v>
@@ -22937,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="AI190" t="n">
-        <v>0.005587</v>
+        <v>0.278087</v>
       </c>
       <c r="AJ190"/>
       <c r="AK190"/>
@@ -22946,7 +22937,7 @@
         <v>0</v>
       </c>
       <c r="AN190" t="n">
-        <v>199350</v>
+        <v>199189</v>
       </c>
     </row>
     <row r="191">
@@ -22963,14 +22954,14 @@
         <v>43</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>47</v>
       </c>
       <c r="F191"/>
       <c r="G191" s="1" t="n">
-        <v>43617</v>
+        <v>43619</v>
       </c>
       <c r="H191" s="1" t="n">
-        <v>43752</v>
+        <v>43773</v>
       </c>
       <c r="I191" t="s">
         <v>362</v>
@@ -22978,14 +22969,18 @@
       <c r="J191" t="s">
         <v>363</v>
       </c>
-      <c r="K191"/>
-      <c r="L191"/>
+      <c r="K191" t="n">
+        <v>0.457773</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.8894</v>
+      </c>
       <c r="M191" t="n">
-        <v>0.278087</v>
+        <v>0.514699</v>
       </c>
       <c r="N191"/>
       <c r="O191" t="n">
-        <v>0.278087</v>
+        <v>0.514699</v>
       </c>
       <c r="P191" t="n">
         <v>1</v>
@@ -23006,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="V191" t="n">
-        <v>0.278087</v>
+        <v>0.514699</v>
       </c>
       <c r="W191" t="n">
         <v>0</v>
@@ -23045,7 +23040,7 @@
         <v>0</v>
       </c>
       <c r="AI191" t="n">
-        <v>0.278087</v>
+        <v>0.514699</v>
       </c>
       <c r="AJ191"/>
       <c r="AK191"/>
@@ -23054,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="AN191" t="n">
-        <v>199189</v>
+        <v>192881</v>
       </c>
     </row>
     <row r="192">
@@ -23071,33 +23066,29 @@
         <v>43</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>364</v>
       </c>
       <c r="F192"/>
       <c r="G192" s="1" t="n">
         <v>43619</v>
       </c>
       <c r="H192" s="1" t="n">
-        <v>43773</v>
+        <v>43766</v>
       </c>
       <c r="I192" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J192" t="s">
-        <v>365</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.457773</v>
-      </c>
-      <c r="L192" t="n">
-        <v>0.8894</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="K192"/>
+      <c r="L192"/>
       <c r="M192" t="n">
-        <v>0.514699</v>
+        <v>0.074398</v>
       </c>
       <c r="N192"/>
       <c r="O192" t="n">
-        <v>0.514699</v>
+        <v>0.074398</v>
       </c>
       <c r="P192" t="n">
         <v>1</v>
@@ -23118,7 +23109,7 @@
         <v>0</v>
       </c>
       <c r="V192" t="n">
-        <v>0.514699</v>
+        <v>0.074398</v>
       </c>
       <c r="W192" t="n">
         <v>0</v>
@@ -23157,7 +23148,7 @@
         <v>0</v>
       </c>
       <c r="AI192" t="n">
-        <v>0.514699</v>
+        <v>0.074398</v>
       </c>
       <c r="AJ192"/>
       <c r="AK192"/>
@@ -23166,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="AN192" t="n">
-        <v>192881</v>
+        <v>200282</v>
       </c>
     </row>
     <row r="193">
@@ -23183,29 +23174,33 @@
         <v>43</v>
       </c>
       <c r="E193" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="F193"/>
       <c r="G193" s="1" t="n">
-        <v>43619</v>
+        <v>43620</v>
       </c>
       <c r="H193" s="1" t="n">
-        <v>43766</v>
+        <v>43622</v>
       </c>
       <c r="I193" t="s">
         <v>367</v>
       </c>
       <c r="J193" t="s">
-        <v>368</v>
-      </c>
-      <c r="K193"/>
-      <c r="L193"/>
+        <v>52</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.899</v>
+      </c>
       <c r="M193" t="n">
-        <v>0.074398</v>
+        <v>0.333704</v>
       </c>
       <c r="N193"/>
       <c r="O193" t="n">
-        <v>0.074398</v>
+        <v>0.333704</v>
       </c>
       <c r="P193" t="n">
         <v>1</v>
@@ -23226,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="V193" t="n">
-        <v>0.074398</v>
+        <v>0.333704</v>
       </c>
       <c r="W193" t="n">
         <v>0</v>
@@ -23265,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="AI193" t="n">
-        <v>0.074398</v>
+        <v>0.333704</v>
       </c>
       <c r="AJ193"/>
       <c r="AK193"/>
@@ -23274,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="AN193" t="n">
-        <v>200282</v>
+        <v>192874</v>
       </c>
     </row>
     <row r="194">
@@ -23291,33 +23286,33 @@
         <v>43</v>
       </c>
       <c r="E194" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="F194"/>
       <c r="G194" s="1" t="n">
         <v>43620</v>
       </c>
       <c r="H194" s="1" t="n">
-        <v>43622</v>
+        <v>43816</v>
       </c>
       <c r="I194" t="s">
+        <v>368</v>
+      </c>
+      <c r="J194" t="s">
         <v>369</v>
       </c>
-      <c r="J194" t="s">
-        <v>52</v>
-      </c>
       <c r="K194" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L194" t="n">
         <v>0.899</v>
       </c>
       <c r="M194" t="n">
-        <v>0.333704</v>
+        <v>0.667408</v>
       </c>
       <c r="N194"/>
       <c r="O194" t="n">
-        <v>0.333704</v>
+        <v>0.667408</v>
       </c>
       <c r="P194" t="n">
         <v>1</v>
@@ -23338,7 +23333,7 @@
         <v>0</v>
       </c>
       <c r="V194" t="n">
-        <v>0.333704</v>
+        <v>0.667408</v>
       </c>
       <c r="W194" t="n">
         <v>0</v>
@@ -23377,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="AI194" t="n">
-        <v>0.333704</v>
+        <v>0.667408</v>
       </c>
       <c r="AJ194"/>
       <c r="AK194"/>
@@ -23386,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="AN194" t="n">
-        <v>192874</v>
+        <v>193039</v>
       </c>
     </row>
     <row r="195">
@@ -23410,7 +23405,7 @@
         <v>43620</v>
       </c>
       <c r="H195" s="1" t="n">
-        <v>43816</v>
+        <v>43978</v>
       </c>
       <c r="I195" t="s">
         <v>370</v>
@@ -23419,17 +23414,17 @@
         <v>371</v>
       </c>
       <c r="K195" t="n">
-        <v>0.6</v>
+        <v>0.834467</v>
       </c>
       <c r="L195" t="n">
         <v>0.899</v>
       </c>
       <c r="M195" t="n">
-        <v>0.667408</v>
+        <v>0.928217</v>
       </c>
       <c r="N195"/>
       <c r="O195" t="n">
-        <v>0.667408</v>
+        <v>0.928217</v>
       </c>
       <c r="P195" t="n">
         <v>1</v>
@@ -23450,7 +23445,7 @@
         <v>0</v>
       </c>
       <c r="V195" t="n">
-        <v>0.667408</v>
+        <v>0.928217</v>
       </c>
       <c r="W195" t="n">
         <v>0</v>
@@ -23489,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="AI195" t="n">
-        <v>0.667408</v>
+        <v>0.928217</v>
       </c>
       <c r="AJ195"/>
       <c r="AK195"/>
@@ -23498,7 +23493,7 @@
         <v>0</v>
       </c>
       <c r="AN195" t="n">
-        <v>193039</v>
+        <v>193040</v>
       </c>
     </row>
     <row r="196">
@@ -23515,14 +23510,14 @@
         <v>43</v>
       </c>
       <c r="E196" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="F196"/>
       <c r="G196" s="1" t="n">
         <v>43620</v>
       </c>
       <c r="H196" s="1" t="n">
-        <v>43978</v>
+        <v>43668</v>
       </c>
       <c r="I196" t="s">
         <v>372</v>
@@ -23531,17 +23526,17 @@
         <v>373</v>
       </c>
       <c r="K196" t="n">
-        <v>0.834467</v>
+        <v>0.05</v>
       </c>
       <c r="L196" t="n">
-        <v>0.899</v>
+        <v>1.009</v>
       </c>
       <c r="M196" t="n">
-        <v>0.928217</v>
+        <v>0.049554</v>
       </c>
       <c r="N196"/>
       <c r="O196" t="n">
-        <v>0.928217</v>
+        <v>0.049554</v>
       </c>
       <c r="P196" t="n">
         <v>1</v>
@@ -23562,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="V196" t="n">
-        <v>0.928217</v>
+        <v>0.049554</v>
       </c>
       <c r="W196" t="n">
         <v>0</v>
@@ -23601,7 +23596,7 @@
         <v>0</v>
       </c>
       <c r="AI196" t="n">
-        <v>0.928217</v>
+        <v>0.049554</v>
       </c>
       <c r="AJ196"/>
       <c r="AK196"/>
@@ -23610,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="AN196" t="n">
-        <v>193040</v>
+        <v>195787</v>
       </c>
     </row>
     <row r="197">
@@ -23627,14 +23622,14 @@
         <v>43</v>
       </c>
       <c r="E197" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="F197"/>
       <c r="G197" s="1" t="n">
         <v>43620</v>
       </c>
       <c r="H197" s="1" t="n">
-        <v>43668</v>
+        <v>43682</v>
       </c>
       <c r="I197" t="s">
         <v>374</v>
@@ -23642,18 +23637,14 @@
       <c r="J197" t="s">
         <v>375</v>
       </c>
-      <c r="K197" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L197" t="n">
-        <v>1.009</v>
-      </c>
+      <c r="K197"/>
+      <c r="L197"/>
       <c r="M197" t="n">
-        <v>0.049554</v>
+        <v>0.10904</v>
       </c>
       <c r="N197"/>
       <c r="O197" t="n">
-        <v>0.049554</v>
+        <v>0.10904</v>
       </c>
       <c r="P197" t="n">
         <v>1</v>
@@ -23674,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="V197" t="n">
-        <v>0.049554</v>
+        <v>0.10904</v>
       </c>
       <c r="W197" t="n">
         <v>0</v>
@@ -23713,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="AI197" t="n">
-        <v>0.049554</v>
+        <v>0.10904</v>
       </c>
       <c r="AJ197"/>
       <c r="AK197"/>
@@ -23722,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="AN197" t="n">
-        <v>195787</v>
+        <v>196266</v>
       </c>
     </row>
     <row r="198">
@@ -23739,29 +23730,33 @@
         <v>43</v>
       </c>
       <c r="E198" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F198"/>
       <c r="G198" s="1" t="n">
         <v>43620</v>
       </c>
       <c r="H198" s="1" t="n">
-        <v>43682</v>
+        <v>43910</v>
       </c>
       <c r="I198" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="J198" t="s">
-        <v>377</v>
-      </c>
-      <c r="K198"/>
-      <c r="L198"/>
+        <v>371</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.665533</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.899</v>
+      </c>
       <c r="M198" t="n">
-        <v>0.10904</v>
+        <v>0.740304</v>
       </c>
       <c r="N198"/>
       <c r="O198" t="n">
-        <v>0.10904</v>
+        <v>0.740304</v>
       </c>
       <c r="P198" t="n">
         <v>1</v>
@@ -23782,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="V198" t="n">
-        <v>0.10904</v>
+        <v>0.740304</v>
       </c>
       <c r="W198" t="n">
         <v>0</v>
@@ -23821,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="AI198" t="n">
-        <v>0.10904</v>
+        <v>0.740304</v>
       </c>
       <c r="AJ198"/>
       <c r="AK198"/>
@@ -23830,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="AN198" t="n">
-        <v>196266</v>
+        <v>206853</v>
       </c>
     </row>
     <row r="199">
@@ -23847,33 +23842,29 @@
         <v>43</v>
       </c>
       <c r="E199" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F199"/>
       <c r="G199" s="1" t="n">
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="H199" s="1" t="n">
-        <v>43910</v>
+        <v>43766</v>
       </c>
       <c r="I199" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="J199" t="s">
-        <v>373</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.665533</v>
-      </c>
-      <c r="L199" t="n">
-        <v>0.899</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="K199"/>
+      <c r="L199"/>
       <c r="M199" t="n">
-        <v>0.740304</v>
+        <v>0.22</v>
       </c>
       <c r="N199"/>
       <c r="O199" t="n">
-        <v>0.740304</v>
+        <v>0.22</v>
       </c>
       <c r="P199" t="n">
         <v>1</v>
@@ -23894,7 +23885,7 @@
         <v>0</v>
       </c>
       <c r="V199" t="n">
-        <v>0.740304</v>
+        <v>0.22</v>
       </c>
       <c r="W199" t="n">
         <v>0</v>
@@ -23933,7 +23924,7 @@
         <v>0</v>
       </c>
       <c r="AI199" t="n">
-        <v>0.740304</v>
+        <v>0.22</v>
       </c>
       <c r="AJ199"/>
       <c r="AK199"/>
@@ -23942,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="AN199" t="n">
-        <v>206853</v>
+        <v>200266</v>
       </c>
     </row>
     <row r="200">
@@ -23959,14 +23950,14 @@
         <v>43</v>
       </c>
       <c r="E200" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="F200"/>
       <c r="G200" s="1" t="n">
-        <v>43621</v>
+        <v>43605</v>
       </c>
       <c r="H200" s="1" t="n">
-        <v>43766</v>
+        <v>43746</v>
       </c>
       <c r="I200" t="s">
         <v>378</v>
@@ -23974,14 +23965,18 @@
       <c r="J200" t="s">
         <v>379</v>
       </c>
-      <c r="K200"/>
-      <c r="L200"/>
+      <c r="K200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.899</v>
+      </c>
       <c r="M200" t="n">
-        <v>0.22</v>
+        <v>0.556174</v>
       </c>
       <c r="N200"/>
       <c r="O200" t="n">
-        <v>0.22</v>
+        <v>0.556174</v>
       </c>
       <c r="P200" t="n">
         <v>1</v>
@@ -24002,7 +23997,7 @@
         <v>0</v>
       </c>
       <c r="V200" t="n">
-        <v>0.22</v>
+        <v>0.556174</v>
       </c>
       <c r="W200" t="n">
         <v>0</v>
@@ -24041,7 +24036,7 @@
         <v>0</v>
       </c>
       <c r="AI200" t="n">
-        <v>0.22</v>
+        <v>0.556174</v>
       </c>
       <c r="AJ200"/>
       <c r="AK200"/>
@@ -24050,7 +24045,7 @@
         <v>0</v>
       </c>
       <c r="AN200" t="n">
-        <v>200266</v>
+        <v>191613</v>
       </c>
     </row>
     <row r="201">
@@ -24067,33 +24062,29 @@
         <v>43</v>
       </c>
       <c r="E201" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="F201"/>
       <c r="G201" s="1" t="n">
-        <v>43605</v>
+        <v>43626</v>
       </c>
       <c r="H201" s="1" t="n">
-        <v>43746</v>
+        <v>43682</v>
       </c>
       <c r="I201" t="s">
+        <v>231</v>
+      </c>
+      <c r="J201" t="s">
         <v>380</v>
       </c>
-      <c r="J201" t="s">
-        <v>381</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L201" t="n">
-        <v>0.899</v>
-      </c>
+      <c r="K201"/>
+      <c r="L201"/>
       <c r="M201" t="n">
-        <v>0.556174</v>
+        <v>0.705567</v>
       </c>
       <c r="N201"/>
       <c r="O201" t="n">
-        <v>0.556174</v>
+        <v>0.705567</v>
       </c>
       <c r="P201" t="n">
         <v>1</v>
@@ -24114,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="V201" t="n">
-        <v>0.556174</v>
+        <v>0.705567</v>
       </c>
       <c r="W201" t="n">
         <v>0</v>
@@ -24153,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="AI201" t="n">
-        <v>0.556174</v>
+        <v>0.705567</v>
       </c>
       <c r="AJ201"/>
       <c r="AK201"/>
@@ -24162,7 +24153,7 @@
         <v>0</v>
       </c>
       <c r="AN201" t="n">
-        <v>191613</v>
+        <v>193444</v>
       </c>
     </row>
     <row r="202">
@@ -24179,17 +24170,17 @@
         <v>43</v>
       </c>
       <c r="E202" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F202"/>
       <c r="G202" s="1" t="n">
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="H202" s="1" t="n">
-        <v>43682</v>
+        <v>43753</v>
       </c>
       <c r="I202" t="s">
-        <v>231</v>
+        <v>381</v>
       </c>
       <c r="J202" t="s">
         <v>382</v>
@@ -24197,11 +24188,11 @@
       <c r="K202"/>
       <c r="L202"/>
       <c r="M202" t="n">
-        <v>0.705567</v>
+        <v>0.504414</v>
       </c>
       <c r="N202"/>
       <c r="O202" t="n">
-        <v>0.705567</v>
+        <v>0.504414</v>
       </c>
       <c r="P202" t="n">
         <v>1</v>
@@ -24222,7 +24213,7 @@
         <v>0</v>
       </c>
       <c r="V202" t="n">
-        <v>0.705567</v>
+        <v>0.504414</v>
       </c>
       <c r="W202" t="n">
         <v>0</v>
@@ -24261,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="AI202" t="n">
-        <v>0.705567</v>
+        <v>0.504414</v>
       </c>
       <c r="AJ202"/>
       <c r="AK202"/>
@@ -24270,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="AN202" t="n">
-        <v>193444</v>
+        <v>199273</v>
       </c>
     </row>
     <row r="203">
@@ -24287,29 +24278,29 @@
         <v>43</v>
       </c>
       <c r="E203" t="s">
-        <v>53</v>
+        <v>383</v>
       </c>
       <c r="F203"/>
       <c r="G203" s="1" t="n">
-        <v>43627</v>
+        <v>43629</v>
       </c>
       <c r="H203" s="1" t="n">
-        <v>43753</v>
+        <v>43642</v>
       </c>
       <c r="I203" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J203" t="s">
-        <v>384</v>
+        <v>52</v>
       </c>
       <c r="K203"/>
       <c r="L203"/>
       <c r="M203" t="n">
-        <v>0.504414</v>
+        <v>0.205375</v>
       </c>
       <c r="N203"/>
       <c r="O203" t="n">
-        <v>0.504414</v>
+        <v>0.205375</v>
       </c>
       <c r="P203" t="n">
         <v>1</v>
@@ -24330,7 +24321,7 @@
         <v>0</v>
       </c>
       <c r="V203" t="n">
-        <v>0.504414</v>
+        <v>0.205375</v>
       </c>
       <c r="W203" t="n">
         <v>0</v>
@@ -24369,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="AI203" t="n">
-        <v>0.504414</v>
+        <v>0.205375</v>
       </c>
       <c r="AJ203"/>
       <c r="AK203"/>
@@ -24378,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="AN203" t="n">
-        <v>199273</v>
+        <v>194275</v>
       </c>
     </row>
     <row r="204">
@@ -24395,7 +24386,7 @@
         <v>43</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F204"/>
       <c r="G204" s="1" t="n">
@@ -24405,7 +24396,7 @@
         <v>43642</v>
       </c>
       <c r="I204" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J204" t="s">
         <v>52</v>
@@ -24413,11 +24404,11 @@
       <c r="K204"/>
       <c r="L204"/>
       <c r="M204" t="n">
-        <v>0.205375</v>
+        <v>0.27</v>
       </c>
       <c r="N204"/>
       <c r="O204" t="n">
-        <v>0.205375</v>
+        <v>0.27</v>
       </c>
       <c r="P204" t="n">
         <v>1</v>
@@ -24438,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="V204" t="n">
-        <v>0.205375</v>
+        <v>0.27</v>
       </c>
       <c r="W204" t="n">
         <v>0</v>
@@ -24477,7 +24468,7 @@
         <v>0</v>
       </c>
       <c r="AI204" t="n">
-        <v>0.205375</v>
+        <v>0.27</v>
       </c>
       <c r="AJ204"/>
       <c r="AK204"/>
@@ -24486,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="AN204" t="n">
-        <v>194275</v>
+        <v>194288</v>
       </c>
     </row>
     <row r="205">
@@ -24507,10 +24498,10 @@
       </c>
       <c r="F205"/>
       <c r="G205" s="1" t="n">
-        <v>43629</v>
+        <v>43630</v>
       </c>
       <c r="H205" s="1" t="n">
-        <v>43642</v>
+        <v>43637</v>
       </c>
       <c r="I205" t="s">
         <v>386</v>
@@ -24521,11 +24512,11 @@
       <c r="K205"/>
       <c r="L205"/>
       <c r="M205" t="n">
-        <v>0.27</v>
+        <v>0.237333</v>
       </c>
       <c r="N205"/>
       <c r="O205" t="n">
-        <v>0.27</v>
+        <v>0.237333</v>
       </c>
       <c r="P205" t="n">
         <v>1</v>
@@ -24546,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="V205" t="n">
-        <v>0.27</v>
+        <v>0.237333</v>
       </c>
       <c r="W205" t="n">
         <v>0</v>
@@ -24585,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="AI205" t="n">
-        <v>0.27</v>
+        <v>0.237333</v>
       </c>
       <c r="AJ205"/>
       <c r="AK205"/>
@@ -24594,7 +24585,7 @@
         <v>0</v>
       </c>
       <c r="AN205" t="n">
-        <v>194288</v>
+        <v>194115</v>
       </c>
     </row>
     <row r="206">
@@ -24611,29 +24602,33 @@
         <v>43</v>
       </c>
       <c r="E206" t="s">
-        <v>387</v>
+        <v>317</v>
       </c>
       <c r="F206"/>
       <c r="G206" s="1" t="n">
         <v>43630</v>
       </c>
       <c r="H206" s="1" t="n">
-        <v>43637</v>
+        <v>43668</v>
       </c>
       <c r="I206" t="s">
+        <v>387</v>
+      </c>
+      <c r="J206" t="s">
         <v>388</v>
       </c>
-      <c r="J206" t="s">
-        <v>52</v>
-      </c>
-      <c r="K206"/>
-      <c r="L206"/>
+      <c r="K206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1.009</v>
+      </c>
       <c r="M206" t="n">
-        <v>0.237333</v>
+        <v>0.297324</v>
       </c>
       <c r="N206"/>
       <c r="O206" t="n">
-        <v>0.237333</v>
+        <v>0.297324</v>
       </c>
       <c r="P206" t="n">
         <v>1</v>
@@ -24654,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="V206" t="n">
-        <v>0.237333</v>
+        <v>0.297324</v>
       </c>
       <c r="W206" t="n">
         <v>0</v>
@@ -24693,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="AI206" t="n">
-        <v>0.237333</v>
+        <v>0.297324</v>
       </c>
       <c r="AJ206"/>
       <c r="AK206"/>
@@ -24702,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="AN206" t="n">
-        <v>194115</v>
+        <v>195788</v>
       </c>
     </row>
     <row r="207">
@@ -24723,7 +24718,7 @@
       </c>
       <c r="F207"/>
       <c r="G207" s="1" t="n">
-        <v>43630</v>
+        <v>43633</v>
       </c>
       <c r="H207" s="1" t="n">
         <v>43668</v>
@@ -24735,17 +24730,17 @@
         <v>390</v>
       </c>
       <c r="K207" t="n">
-        <v>0.3</v>
+        <v>0.298867</v>
       </c>
       <c r="L207" t="n">
         <v>1.009</v>
       </c>
       <c r="M207" t="n">
-        <v>0.297324</v>
+        <v>0.296201</v>
       </c>
       <c r="N207"/>
       <c r="O207" t="n">
-        <v>0.297324</v>
+        <v>0.296201</v>
       </c>
       <c r="P207" t="n">
         <v>1</v>
@@ -24766,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="V207" t="n">
-        <v>0.297324</v>
+        <v>0.296201</v>
       </c>
       <c r="W207" t="n">
         <v>0</v>
@@ -24805,7 +24800,7 @@
         <v>0</v>
       </c>
       <c r="AI207" t="n">
-        <v>0.297324</v>
+        <v>0.296201</v>
       </c>
       <c r="AJ207"/>
       <c r="AK207"/>
@@ -24814,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="AN207" t="n">
-        <v>195788</v>
+        <v>195782</v>
       </c>
     </row>
     <row r="208">
@@ -24831,33 +24826,29 @@
         <v>43</v>
       </c>
       <c r="E208" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="F208"/>
       <c r="G208" s="1" t="n">
         <v>43633</v>
       </c>
       <c r="H208" s="1" t="n">
-        <v>43668</v>
+        <v>43788</v>
       </c>
       <c r="I208" t="s">
-        <v>391</v>
+        <v>137</v>
       </c>
       <c r="J208" t="s">
         <v>392</v>
       </c>
-      <c r="K208" t="n">
-        <v>0.298867</v>
-      </c>
-      <c r="L208" t="n">
-        <v>1.009</v>
-      </c>
+      <c r="K208"/>
+      <c r="L208"/>
       <c r="M208" t="n">
-        <v>0.296201</v>
+        <v>0.497221</v>
       </c>
       <c r="N208"/>
       <c r="O208" t="n">
-        <v>0.296201</v>
+        <v>0.497221</v>
       </c>
       <c r="P208" t="n">
         <v>1</v>
@@ -24878,7 +24869,7 @@
         <v>0</v>
       </c>
       <c r="V208" t="n">
-        <v>0.296201</v>
+        <v>0.497221</v>
       </c>
       <c r="W208" t="n">
         <v>0</v>
@@ -24917,7 +24908,7 @@
         <v>0</v>
       </c>
       <c r="AI208" t="n">
-        <v>0.296201</v>
+        <v>0.497221</v>
       </c>
       <c r="AJ208"/>
       <c r="AK208"/>
@@ -24926,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="AN208" t="n">
-        <v>195782</v>
+        <v>199315</v>
       </c>
     </row>
     <row r="209">
@@ -24943,29 +24934,33 @@
         <v>43</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>53</v>
       </c>
       <c r="F209"/>
       <c r="G209" s="1" t="n">
         <v>43633</v>
       </c>
       <c r="H209" s="1" t="n">
-        <v>43788</v>
+        <v>43767</v>
       </c>
       <c r="I209" t="s">
-        <v>137</v>
+        <v>393</v>
       </c>
       <c r="J209" t="s">
         <v>394</v>
       </c>
-      <c r="K209"/>
-      <c r="L209"/>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.788</v>
+      </c>
       <c r="M209" t="n">
-        <v>0.497221</v>
+        <v>2.538071</v>
       </c>
       <c r="N209"/>
       <c r="O209" t="n">
-        <v>0.497221</v>
+        <v>2.538071</v>
       </c>
       <c r="P209" t="n">
         <v>1</v>
@@ -24986,7 +24981,7 @@
         <v>0</v>
       </c>
       <c r="V209" t="n">
-        <v>0.497221</v>
+        <v>2.538071</v>
       </c>
       <c r="W209" t="n">
         <v>0</v>
@@ -25025,7 +25020,7 @@
         <v>0</v>
       </c>
       <c r="AI209" t="n">
-        <v>0.497221</v>
+        <v>2.538071</v>
       </c>
       <c r="AJ209"/>
       <c r="AK209"/>
@@ -25034,7 +25029,7 @@
         <v>0</v>
       </c>
       <c r="AN209" t="n">
-        <v>199315</v>
+        <v>200405</v>
       </c>
     </row>
     <row r="210">
@@ -25051,33 +25046,29 @@
         <v>43</v>
       </c>
       <c r="E210" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F210"/>
       <c r="G210" s="1" t="n">
-        <v>43633</v>
+        <v>43635</v>
       </c>
       <c r="H210" s="1" t="n">
-        <v>43767</v>
+        <v>43682</v>
       </c>
       <c r="I210" t="s">
+        <v>374</v>
+      </c>
+      <c r="J210" t="s">
         <v>395</v>
       </c>
-      <c r="J210" t="s">
-        <v>396</v>
-      </c>
-      <c r="K210" t="n">
-        <v>2</v>
-      </c>
-      <c r="L210" t="n">
-        <v>0.788</v>
-      </c>
+      <c r="K210"/>
+      <c r="L210"/>
       <c r="M210" t="n">
-        <v>2.538071</v>
+        <v>1.31928</v>
       </c>
       <c r="N210"/>
       <c r="O210" t="n">
-        <v>2.538071</v>
+        <v>1.31928</v>
       </c>
       <c r="P210" t="n">
         <v>1</v>
@@ -25098,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="V210" t="n">
-        <v>2.538071</v>
+        <v>1.31928</v>
       </c>
       <c r="W210" t="n">
         <v>0</v>
@@ -25137,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="AI210" t="n">
-        <v>2.538071</v>
+        <v>1.31928</v>
       </c>
       <c r="AJ210"/>
       <c r="AK210"/>
@@ -25146,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="AN210" t="n">
-        <v>200405</v>
+        <v>196269</v>
       </c>
     </row>
     <row r="211">
@@ -25163,29 +25154,33 @@
         <v>43</v>
       </c>
       <c r="E211" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="F211"/>
       <c r="G211" s="1" t="n">
-        <v>43635</v>
+        <v>43636</v>
       </c>
       <c r="H211" s="1" t="n">
-        <v>43682</v>
+        <v>43668</v>
       </c>
       <c r="I211" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="J211" t="s">
         <v>397</v>
       </c>
-      <c r="K211"/>
-      <c r="L211"/>
+      <c r="K211" t="n">
+        <v>0.263141</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1.009</v>
+      </c>
       <c r="M211" t="n">
-        <v>1.31928</v>
+        <v>0.260794</v>
       </c>
       <c r="N211"/>
       <c r="O211" t="n">
-        <v>1.31928</v>
+        <v>0.260794</v>
       </c>
       <c r="P211" t="n">
         <v>1</v>
@@ -25206,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="V211" t="n">
-        <v>1.31928</v>
+        <v>0.260794</v>
       </c>
       <c r="W211" t="n">
         <v>0</v>
@@ -25245,7 +25240,7 @@
         <v>0</v>
       </c>
       <c r="AI211" t="n">
-        <v>1.31928</v>
+        <v>0.260794</v>
       </c>
       <c r="AJ211"/>
       <c r="AK211"/>
@@ -25254,7 +25249,7 @@
         <v>0</v>
       </c>
       <c r="AN211" t="n">
-        <v>196269</v>
+        <v>195780</v>
       </c>
     </row>
     <row r="212">
@@ -25271,33 +25266,29 @@
         <v>43</v>
       </c>
       <c r="E212" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="F212"/>
       <c r="G212" s="1" t="n">
-        <v>43636</v>
+        <v>43637</v>
       </c>
       <c r="H212" s="1" t="n">
-        <v>43668</v>
+        <v>43682</v>
       </c>
       <c r="I212" t="s">
+        <v>374</v>
+      </c>
+      <c r="J212" t="s">
         <v>398</v>
       </c>
-      <c r="J212" t="s">
-        <v>399</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.263141</v>
-      </c>
-      <c r="L212" t="n">
-        <v>1.009</v>
-      </c>
+      <c r="K212"/>
+      <c r="L212"/>
       <c r="M212" t="n">
-        <v>0.260794</v>
+        <v>0.580111</v>
       </c>
       <c r="N212"/>
       <c r="O212" t="n">
-        <v>0.260794</v>
+        <v>0.580111</v>
       </c>
       <c r="P212" t="n">
         <v>1</v>
@@ -25318,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="V212" t="n">
-        <v>0.260794</v>
+        <v>0.580111</v>
       </c>
       <c r="W212" t="n">
         <v>0</v>
@@ -25357,7 +25348,7 @@
         <v>0</v>
       </c>
       <c r="AI212" t="n">
-        <v>0.260794</v>
+        <v>0.580111</v>
       </c>
       <c r="AJ212"/>
       <c r="AK212"/>
@@ -25366,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="AN212" t="n">
-        <v>195780</v>
+        <v>196270</v>
       </c>
     </row>
     <row r="213">
@@ -25387,25 +25378,25 @@
       </c>
       <c r="F213"/>
       <c r="G213" s="1" t="n">
-        <v>43637</v>
+        <v>43640</v>
       </c>
       <c r="H213" s="1" t="n">
         <v>43682</v>
       </c>
       <c r="I213" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J213" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K213"/>
       <c r="L213"/>
       <c r="M213" t="n">
-        <v>0.580111</v>
+        <v>0.01428</v>
       </c>
       <c r="N213"/>
       <c r="O213" t="n">
-        <v>0.580111</v>
+        <v>0.01428</v>
       </c>
       <c r="P213" t="n">
         <v>1</v>
@@ -25426,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="V213" t="n">
-        <v>0.580111</v>
+        <v>0.01428</v>
       </c>
       <c r="W213" t="n">
         <v>0</v>
@@ -25465,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="AI213" t="n">
-        <v>0.580111</v>
+        <v>0.01428</v>
       </c>
       <c r="AJ213"/>
       <c r="AK213"/>
@@ -25474,7 +25465,7 @@
         <v>0</v>
       </c>
       <c r="AN213" t="n">
-        <v>196270</v>
+        <v>196268</v>
       </c>
     </row>
     <row r="214">
@@ -25495,13 +25486,13 @@
       </c>
       <c r="F214"/>
       <c r="G214" s="1" t="n">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="H214" s="1" t="n">
-        <v>43682</v>
+        <v>43726</v>
       </c>
       <c r="I214" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="J214" t="s">
         <v>401</v>
@@ -25509,11 +25500,11 @@
       <c r="K214"/>
       <c r="L214"/>
       <c r="M214" t="n">
-        <v>0.01428</v>
+        <v>0.03125</v>
       </c>
       <c r="N214"/>
       <c r="O214" t="n">
-        <v>0.01428</v>
+        <v>0.03125</v>
       </c>
       <c r="P214" t="n">
         <v>1</v>
@@ -25534,7 +25525,7 @@
         <v>0</v>
       </c>
       <c r="V214" t="n">
-        <v>0.01428</v>
+        <v>0.03125</v>
       </c>
       <c r="W214" t="n">
         <v>0</v>
@@ -25573,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="AI214" t="n">
-        <v>0.01428</v>
+        <v>0.03125</v>
       </c>
       <c r="AJ214"/>
       <c r="AK214"/>
@@ -25582,7 +25573,7 @@
         <v>0</v>
       </c>
       <c r="AN214" t="n">
-        <v>196268</v>
+        <v>197943</v>
       </c>
     </row>
     <row r="215">
@@ -25599,14 +25590,14 @@
         <v>43</v>
       </c>
       <c r="E215" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="F215"/>
       <c r="G215" s="1" t="n">
-        <v>43641</v>
+        <v>43642</v>
       </c>
       <c r="H215" s="1" t="n">
-        <v>43726</v>
+        <v>43668</v>
       </c>
       <c r="I215" t="s">
         <v>402</v>
@@ -25614,14 +25605,18 @@
       <c r="J215" t="s">
         <v>403</v>
       </c>
-      <c r="K215"/>
-      <c r="L215"/>
+      <c r="K215" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1.009</v>
+      </c>
       <c r="M215" t="n">
-        <v>0.03125</v>
+        <v>0.297324</v>
       </c>
       <c r="N215"/>
       <c r="O215" t="n">
-        <v>0.03125</v>
+        <v>0.297324</v>
       </c>
       <c r="P215" t="n">
         <v>1</v>
@@ -25642,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="V215" t="n">
-        <v>0.03125</v>
+        <v>0.297324</v>
       </c>
       <c r="W215" t="n">
         <v>0</v>
@@ -25681,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="AI215" t="n">
-        <v>0.03125</v>
+        <v>0.297324</v>
       </c>
       <c r="AJ215"/>
       <c r="AK215"/>
@@ -25690,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="AN215" t="n">
-        <v>197943</v>
+        <v>195777</v>
       </c>
     </row>
     <row r="216">
@@ -25707,33 +25702,29 @@
         <v>43</v>
       </c>
       <c r="E216" t="s">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="F216"/>
       <c r="G216" s="1" t="n">
-        <v>43642</v>
+        <v>43644</v>
       </c>
       <c r="H216" s="1" t="n">
-        <v>43668</v>
+        <v>43754</v>
       </c>
       <c r="I216" t="s">
+        <v>137</v>
+      </c>
+      <c r="J216" t="s">
         <v>404</v>
       </c>
-      <c r="J216" t="s">
-        <v>405</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L216" t="n">
-        <v>1.009</v>
-      </c>
+      <c r="K216"/>
+      <c r="L216"/>
       <c r="M216" t="n">
-        <v>0.297324</v>
+        <v>3.695417</v>
       </c>
       <c r="N216"/>
       <c r="O216" t="n">
-        <v>0.297324</v>
+        <v>3.695417</v>
       </c>
       <c r="P216" t="n">
         <v>1</v>
@@ -25754,7 +25745,7 @@
         <v>0</v>
       </c>
       <c r="V216" t="n">
-        <v>0.297324</v>
+        <v>3.695417</v>
       </c>
       <c r="W216" t="n">
         <v>0</v>
@@ -25793,7 +25784,7 @@
         <v>0</v>
       </c>
       <c r="AI216" t="n">
-        <v>0.297324</v>
+        <v>3.695417</v>
       </c>
       <c r="AJ216"/>
       <c r="AK216"/>
@@ -25802,7 +25793,7 @@
         <v>0</v>
       </c>
       <c r="AN216" t="n">
-        <v>195777</v>
+        <v>199364</v>
       </c>
     </row>
     <row r="217">
@@ -25819,29 +25810,33 @@
         <v>43</v>
       </c>
       <c r="E217" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F217"/>
       <c r="G217" s="1" t="n">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="H217" s="1" t="n">
-        <v>43754</v>
+        <v>43650</v>
       </c>
       <c r="I217" t="s">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="J217" t="s">
-        <v>406</v>
-      </c>
-      <c r="K217"/>
-      <c r="L217"/>
+        <v>256</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.977</v>
+      </c>
       <c r="M217" t="n">
-        <v>3.695417</v>
+        <v>0</v>
       </c>
       <c r="N217"/>
       <c r="O217" t="n">
-        <v>3.695417</v>
+        <v>0</v>
       </c>
       <c r="P217" t="n">
         <v>1</v>
@@ -25862,7 +25857,7 @@
         <v>0</v>
       </c>
       <c r="V217" t="n">
-        <v>3.695417</v>
+        <v>0</v>
       </c>
       <c r="W217" t="n">
         <v>0</v>
@@ -25901,7 +25896,7 @@
         <v>0</v>
       </c>
       <c r="AI217" t="n">
-        <v>3.695417</v>
+        <v>0</v>
       </c>
       <c r="AJ217"/>
       <c r="AK217"/>
@@ -25910,7 +25905,7 @@
         <v>0</v>
       </c>
       <c r="AN217" t="n">
-        <v>199364</v>
+        <v>195066</v>
       </c>
     </row>
     <row r="218">
@@ -25937,23 +25932,23 @@
         <v>43650</v>
       </c>
       <c r="I218" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J218" t="s">
         <v>256</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>0.0435</v>
       </c>
       <c r="L218" t="n">
         <v>0.977</v>
       </c>
       <c r="M218" t="n">
-        <v>0</v>
+        <v>0.044524</v>
       </c>
       <c r="N218"/>
       <c r="O218" t="n">
-        <v>0</v>
+        <v>0.044524</v>
       </c>
       <c r="P218" t="n">
         <v>1</v>
@@ -25974,7 +25969,7 @@
         <v>0</v>
       </c>
       <c r="V218" t="n">
-        <v>0</v>
+        <v>0.044524</v>
       </c>
       <c r="W218" t="n">
         <v>0</v>
@@ -26013,7 +26008,7 @@
         <v>0</v>
       </c>
       <c r="AI218" t="n">
-        <v>0</v>
+        <v>0.044524</v>
       </c>
       <c r="AJ218"/>
       <c r="AK218"/>
@@ -26022,7 +26017,7 @@
         <v>0</v>
       </c>
       <c r="AN218" t="n">
-        <v>195066</v>
+        <v>195067</v>
       </c>
     </row>
     <row r="219">
@@ -26049,23 +26044,23 @@
         <v>43650</v>
       </c>
       <c r="I219" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J219" t="s">
         <v>256</v>
       </c>
       <c r="K219" t="n">
-        <v>0.0435</v>
+        <v>0.0265</v>
       </c>
       <c r="L219" t="n">
         <v>0.977</v>
       </c>
       <c r="M219" t="n">
-        <v>0.044524</v>
+        <v>0.027124</v>
       </c>
       <c r="N219"/>
       <c r="O219" t="n">
-        <v>0.044524</v>
+        <v>0.027124</v>
       </c>
       <c r="P219" t="n">
         <v>1</v>
@@ -26086,7 +26081,7 @@
         <v>0</v>
       </c>
       <c r="V219" t="n">
-        <v>0.044524</v>
+        <v>0.027124</v>
       </c>
       <c r="W219" t="n">
         <v>0</v>
@@ -26125,7 +26120,7 @@
         <v>0</v>
       </c>
       <c r="AI219" t="n">
-        <v>0.044524</v>
+        <v>0.027124</v>
       </c>
       <c r="AJ219"/>
       <c r="AK219"/>
@@ -26134,7 +26129,7 @@
         <v>0</v>
       </c>
       <c r="AN219" t="n">
-        <v>195067</v>
+        <v>195068</v>
       </c>
     </row>
     <row r="220">
@@ -26151,33 +26146,29 @@
         <v>43</v>
       </c>
       <c r="E220" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F220"/>
       <c r="G220" s="1" t="n">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="H220" s="1" t="n">
-        <v>43650</v>
+        <v>44055</v>
       </c>
       <c r="I220" t="s">
+        <v>408</v>
+      </c>
+      <c r="J220" t="s">
         <v>409</v>
       </c>
-      <c r="J220" t="s">
-        <v>256</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.0265</v>
-      </c>
-      <c r="L220" t="n">
-        <v>0.977</v>
-      </c>
+      <c r="K220"/>
+      <c r="L220"/>
       <c r="M220" t="n">
-        <v>0.027124</v>
+        <v>2.723777</v>
       </c>
       <c r="N220"/>
       <c r="O220" t="n">
-        <v>0.027124</v>
+        <v>2.723777</v>
       </c>
       <c r="P220" t="n">
         <v>1</v>
@@ -26198,10 +26189,10 @@
         <v>0</v>
       </c>
       <c r="V220" t="n">
-        <v>0.027124</v>
+        <v>0</v>
       </c>
       <c r="W220" t="n">
-        <v>0</v>
+        <v>2.723777</v>
       </c>
       <c r="X220" t="n">
         <v>0</v>
@@ -26237,7 +26228,7 @@
         <v>0</v>
       </c>
       <c r="AI220" t="n">
-        <v>0.027124</v>
+        <v>2.723777</v>
       </c>
       <c r="AJ220"/>
       <c r="AK220"/>
@@ -26246,7 +26237,7 @@
         <v>0</v>
       </c>
       <c r="AN220" t="n">
-        <v>195068</v>
+        <v>199195</v>
       </c>
     </row>
     <row r="221">
@@ -26263,29 +26254,33 @@
         <v>43</v>
       </c>
       <c r="E221" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F221"/>
       <c r="G221" s="1" t="n">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="H221" s="1" t="n">
-        <v>44055</v>
+        <v>43650</v>
       </c>
       <c r="I221" t="s">
         <v>410</v>
       </c>
       <c r="J221" t="s">
-        <v>411</v>
-      </c>
-      <c r="K221"/>
-      <c r="L221"/>
+        <v>52</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0.7604</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.88</v>
+      </c>
       <c r="M221" t="n">
-        <v>2.723777</v>
+        <v>0.864091</v>
       </c>
       <c r="N221"/>
       <c r="O221" t="n">
-        <v>2.723777</v>
+        <v>0.864091</v>
       </c>
       <c r="P221" t="n">
         <v>1</v>
@@ -26309,7 +26304,7 @@
         <v>0</v>
       </c>
       <c r="W221" t="n">
-        <v>2.723777</v>
+        <v>0.864091</v>
       </c>
       <c r="X221" t="n">
         <v>0</v>
@@ -26345,7 +26340,7 @@
         <v>0</v>
       </c>
       <c r="AI221" t="n">
-        <v>2.723777</v>
+        <v>0.864091</v>
       </c>
       <c r="AJ221"/>
       <c r="AK221"/>
@@ -26354,7 +26349,7 @@
         <v>0</v>
       </c>
       <c r="AN221" t="n">
-        <v>199195</v>
+        <v>194836</v>
       </c>
     </row>
     <row r="222">
@@ -26371,33 +26366,29 @@
         <v>43</v>
       </c>
       <c r="E222" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F222"/>
       <c r="G222" s="1" t="n">
         <v>43648</v>
       </c>
       <c r="H222" s="1" t="n">
-        <v>43650</v>
+        <v>43726</v>
       </c>
       <c r="I222" t="s">
-        <v>412</v>
+        <v>231</v>
       </c>
       <c r="J222" t="s">
-        <v>52</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.7604</v>
-      </c>
-      <c r="L222" t="n">
-        <v>0.88</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="K222"/>
+      <c r="L222"/>
       <c r="M222" t="n">
-        <v>0.864091</v>
+        <v>0.06236</v>
       </c>
       <c r="N222"/>
       <c r="O222" t="n">
-        <v>0.864091</v>
+        <v>0.06236</v>
       </c>
       <c r="P222" t="n">
         <v>1</v>
@@ -26421,7 +26412,7 @@
         <v>0</v>
       </c>
       <c r="W222" t="n">
-        <v>0.864091</v>
+        <v>0.06236</v>
       </c>
       <c r="X222" t="n">
         <v>0</v>
@@ -26457,7 +26448,7 @@
         <v>0</v>
       </c>
       <c r="AI222" t="n">
-        <v>0.864091</v>
+        <v>0.06236</v>
       </c>
       <c r="AJ222"/>
       <c r="AK222"/>
@@ -26466,7 +26457,7 @@
         <v>0</v>
       </c>
       <c r="AN222" t="n">
-        <v>194836</v>
+        <v>197941</v>
       </c>
     </row>
     <row r="223">
@@ -26483,29 +26474,33 @@
         <v>43</v>
       </c>
       <c r="E223" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F223"/>
       <c r="G223" s="1" t="n">
-        <v>43648</v>
+        <v>43649</v>
       </c>
       <c r="H223" s="1" t="n">
-        <v>43726</v>
+        <v>43658</v>
       </c>
       <c r="I223" t="s">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="J223" t="s">
-        <v>413</v>
-      </c>
-      <c r="K223"/>
-      <c r="L223"/>
+        <v>52</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L223" t="n">
+        <v>9.279</v>
+      </c>
       <c r="M223" t="n">
-        <v>0.06236</v>
+        <v>0.258649</v>
       </c>
       <c r="N223"/>
       <c r="O223" t="n">
-        <v>0.06236</v>
+        <v>0.258649</v>
       </c>
       <c r="P223" t="n">
         <v>1</v>
@@ -26529,7 +26524,7 @@
         <v>0</v>
       </c>
       <c r="W223" t="n">
-        <v>0.06236</v>
+        <v>0.258649</v>
       </c>
       <c r="X223" t="n">
         <v>0</v>
@@ -26565,7 +26560,7 @@
         <v>0</v>
       </c>
       <c r="AI223" t="n">
-        <v>0.06236</v>
+        <v>0.258649</v>
       </c>
       <c r="AJ223"/>
       <c r="AK223"/>
@@ -26574,7 +26569,7 @@
         <v>0</v>
       </c>
       <c r="AN223" t="n">
-        <v>197941</v>
+        <v>195442</v>
       </c>
     </row>
     <row r="224">
@@ -26591,33 +26586,29 @@
         <v>43</v>
       </c>
       <c r="E224" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="F224"/>
       <c r="G224" s="1" t="n">
         <v>43649</v>
       </c>
       <c r="H224" s="1" t="n">
-        <v>43658</v>
+        <v>43754</v>
       </c>
       <c r="I224" t="s">
-        <v>414</v>
+        <v>137</v>
       </c>
       <c r="J224" t="s">
-        <v>52</v>
-      </c>
-      <c r="K224" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L224" t="n">
-        <v>9.279</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="K224"/>
+      <c r="L224"/>
       <c r="M224" t="n">
-        <v>0.258649</v>
+        <v>0.75</v>
       </c>
       <c r="N224"/>
       <c r="O224" t="n">
-        <v>0.258649</v>
+        <v>0.75</v>
       </c>
       <c r="P224" t="n">
         <v>1</v>
@@ -26641,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="W224" t="n">
-        <v>0.258649</v>
+        <v>0.75</v>
       </c>
       <c r="X224" t="n">
         <v>0</v>
@@ -26677,7 +26668,7 @@
         <v>0</v>
       </c>
       <c r="AI224" t="n">
-        <v>0.258649</v>
+        <v>0.75</v>
       </c>
       <c r="AJ224"/>
       <c r="AK224"/>
@@ -26686,7 +26677,7 @@
         <v>0</v>
       </c>
       <c r="AN224" t="n">
-        <v>195442</v>
+        <v>199349</v>
       </c>
     </row>
     <row r="225">
@@ -26703,29 +26694,33 @@
         <v>43</v>
       </c>
       <c r="E225" t="s">
-        <v>193</v>
+        <v>317</v>
       </c>
       <c r="F225"/>
       <c r="G225" s="1" t="n">
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="H225" s="1" t="n">
-        <v>43754</v>
+        <v>43668</v>
       </c>
       <c r="I225" t="s">
-        <v>137</v>
+        <v>414</v>
       </c>
       <c r="J225" t="s">
         <v>415</v>
       </c>
-      <c r="K225"/>
-      <c r="L225"/>
+      <c r="K225" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.977</v>
+      </c>
       <c r="M225" t="n">
-        <v>0.75</v>
+        <v>1.013306</v>
       </c>
       <c r="N225"/>
       <c r="O225" t="n">
-        <v>0.75</v>
+        <v>1.013306</v>
       </c>
       <c r="P225" t="n">
         <v>1</v>
@@ -26749,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="W225" t="n">
-        <v>0.75</v>
+        <v>1.013306</v>
       </c>
       <c r="X225" t="n">
         <v>0</v>
@@ -26785,7 +26780,7 @@
         <v>0</v>
       </c>
       <c r="AI225" t="n">
-        <v>0.75</v>
+        <v>1.013306</v>
       </c>
       <c r="AJ225"/>
       <c r="AK225"/>
@@ -26794,7 +26789,7 @@
         <v>0</v>
       </c>
       <c r="AN225" t="n">
-        <v>199349</v>
+        <v>195772</v>
       </c>
     </row>
     <row r="226">
@@ -26824,7 +26819,7 @@
         <v>416</v>
       </c>
       <c r="J226" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K226" t="n">
         <v>0.99</v>
@@ -26906,7 +26901,7 @@
         <v>0</v>
       </c>
       <c r="AN226" t="n">
-        <v>195772</v>
+        <v>195773</v>
       </c>
     </row>
     <row r="227">
@@ -26923,33 +26918,33 @@
         <v>43</v>
       </c>
       <c r="E227" t="s">
-        <v>317</v>
+        <v>47</v>
       </c>
       <c r="F227"/>
       <c r="G227" s="1" t="n">
-        <v>43650</v>
+        <v>43656</v>
       </c>
       <c r="H227" s="1" t="n">
-        <v>43668</v>
+        <v>43816</v>
       </c>
       <c r="I227" t="s">
+        <v>417</v>
+      </c>
+      <c r="J227" t="s">
         <v>418</v>
       </c>
-      <c r="J227" t="s">
-        <v>417</v>
-      </c>
       <c r="K227" t="n">
-        <v>0.99</v>
+        <v>2.5</v>
       </c>
       <c r="L227" t="n">
-        <v>0.977</v>
+        <v>0.8839</v>
       </c>
       <c r="M227" t="n">
-        <v>1.013306</v>
+        <v>2.828409</v>
       </c>
       <c r="N227"/>
       <c r="O227" t="n">
-        <v>1.013306</v>
+        <v>2.828409</v>
       </c>
       <c r="P227" t="n">
         <v>1</v>
@@ -26973,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="W227" t="n">
-        <v>1.013306</v>
+        <v>2.828409</v>
       </c>
       <c r="X227" t="n">
         <v>0</v>
@@ -27009,7 +27004,7 @@
         <v>0</v>
       </c>
       <c r="AI227" t="n">
-        <v>1.013306</v>
+        <v>2.828409</v>
       </c>
       <c r="AJ227"/>
       <c r="AK227"/>
@@ -27018,7 +27013,7 @@
         <v>0</v>
       </c>
       <c r="AN227" t="n">
-        <v>195773</v>
+        <v>195447</v>
       </c>
     </row>
     <row r="228">
@@ -27035,33 +27030,29 @@
         <v>43</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="F228"/>
       <c r="G228" s="1" t="n">
         <v>43656</v>
       </c>
       <c r="H228" s="1" t="n">
-        <v>43816</v>
+        <v>43766</v>
       </c>
       <c r="I228" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J228" t="s">
-        <v>420</v>
-      </c>
-      <c r="K228" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L228" t="n">
-        <v>0.8839</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="K228"/>
+      <c r="L228"/>
       <c r="M228" t="n">
-        <v>2.828409</v>
+        <v>0.286297</v>
       </c>
       <c r="N228"/>
       <c r="O228" t="n">
-        <v>2.828409</v>
+        <v>0.286297</v>
       </c>
       <c r="P228" t="n">
         <v>1</v>
@@ -27085,7 +27076,7 @@
         <v>0</v>
       </c>
       <c r="W228" t="n">
-        <v>2.828409</v>
+        <v>0.286297</v>
       </c>
       <c r="X228" t="n">
         <v>0</v>
@@ -27121,7 +27112,7 @@
         <v>0</v>
       </c>
       <c r="AI228" t="n">
-        <v>2.828409</v>
+        <v>0.286297</v>
       </c>
       <c r="AJ228"/>
       <c r="AK228"/>
@@ -27130,7 +27121,7 @@
         <v>0</v>
       </c>
       <c r="AN228" t="n">
-        <v>195447</v>
+        <v>200264</v>
       </c>
     </row>
     <row r="229">
@@ -27147,29 +27138,29 @@
         <v>43</v>
       </c>
       <c r="E229" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F229"/>
       <c r="G229" s="1" t="n">
-        <v>43656</v>
+        <v>43581</v>
       </c>
       <c r="H229" s="1" t="n">
-        <v>43766</v>
+        <v>43662</v>
       </c>
       <c r="I229" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J229" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K229"/>
       <c r="L229"/>
       <c r="M229" t="n">
-        <v>0.286297</v>
+        <v>10</v>
       </c>
       <c r="N229"/>
       <c r="O229" t="n">
-        <v>0.286297</v>
+        <v>10</v>
       </c>
       <c r="P229" t="n">
         <v>1</v>
@@ -27193,7 +27184,7 @@
         <v>0</v>
       </c>
       <c r="W229" t="n">
-        <v>0.286297</v>
+        <v>10</v>
       </c>
       <c r="X229" t="n">
         <v>0</v>
@@ -27229,7 +27220,7 @@
         <v>0</v>
       </c>
       <c r="AI229" t="n">
-        <v>0.286297</v>
+        <v>10</v>
       </c>
       <c r="AJ229"/>
       <c r="AK229"/>
@@ -27238,7 +27229,7 @@
         <v>0</v>
       </c>
       <c r="AN229" t="n">
-        <v>200264</v>
+        <v>190557</v>
       </c>
     </row>
     <row r="230">
@@ -27255,11 +27246,11 @@
         <v>43</v>
       </c>
       <c r="E230" t="s">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="F230"/>
       <c r="G230" s="1" t="n">
-        <v>43581</v>
+        <v>43601</v>
       </c>
       <c r="H230" s="1" t="n">
         <v>43662</v>
@@ -27273,11 +27264,11 @@
       <c r="K230"/>
       <c r="L230"/>
       <c r="M230" t="n">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N230"/>
       <c r="O230" t="n">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="P230" t="n">
         <v>1</v>
@@ -27301,7 +27292,7 @@
         <v>0</v>
       </c>
       <c r="W230" t="n">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="X230" t="n">
         <v>0</v>
@@ -27337,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="AI230" t="n">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="AJ230"/>
       <c r="AK230"/>
@@ -27346,7 +27337,7 @@
         <v>0</v>
       </c>
       <c r="AN230" t="n">
-        <v>190557</v>
+        <v>191285</v>
       </c>
     </row>
     <row r="231">
@@ -27363,29 +27354,29 @@
         <v>43</v>
       </c>
       <c r="E231" t="s">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="F231"/>
       <c r="G231" s="1" t="n">
-        <v>43601</v>
+        <v>43658</v>
       </c>
       <c r="H231" s="1" t="n">
         <v>43662</v>
       </c>
       <c r="I231" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J231" t="s">
-        <v>428</v>
+        <v>52</v>
       </c>
       <c r="K231"/>
       <c r="L231"/>
       <c r="M231" t="n">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="N231"/>
       <c r="O231" t="n">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="P231" t="n">
         <v>1</v>
@@ -27409,7 +27400,7 @@
         <v>0</v>
       </c>
       <c r="W231" t="n">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="X231" t="n">
         <v>0</v>
@@ -27445,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="AI231" t="n">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="AJ231"/>
       <c r="AK231"/>
@@ -27454,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="AN231" t="n">
-        <v>191285</v>
+        <v>195503</v>
       </c>
     </row>
     <row r="232">
@@ -27471,29 +27462,29 @@
         <v>43</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="F232"/>
       <c r="G232" s="1" t="n">
         <v>43658</v>
       </c>
       <c r="H232" s="1" t="n">
-        <v>43662</v>
+        <v>43663</v>
       </c>
       <c r="I232" t="s">
+        <v>429</v>
+      </c>
+      <c r="J232" t="s">
         <v>430</v>
-      </c>
-      <c r="J232" t="s">
-        <v>52</v>
       </c>
       <c r="K232"/>
       <c r="L232"/>
       <c r="M232" t="n">
-        <v>0.5</v>
+        <v>0.729517</v>
       </c>
       <c r="N232"/>
       <c r="O232" t="n">
-        <v>0.5</v>
+        <v>0.729517</v>
       </c>
       <c r="P232" t="n">
         <v>1</v>
@@ -27517,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="W232" t="n">
-        <v>0.5</v>
+        <v>0.729517</v>
       </c>
       <c r="X232" t="n">
         <v>0</v>
@@ -27553,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="AI232" t="n">
-        <v>0.5</v>
+        <v>0.729517</v>
       </c>
       <c r="AJ232"/>
       <c r="AK232"/>
@@ -27562,7 +27553,7 @@
         <v>0</v>
       </c>
       <c r="AN232" t="n">
-        <v>195503</v>
+        <v>195505</v>
       </c>
     </row>
     <row r="233">
@@ -27579,29 +27570,29 @@
         <v>43</v>
       </c>
       <c r="E233" t="s">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="F233"/>
       <c r="G233" s="1" t="n">
         <v>43658</v>
       </c>
       <c r="H233" s="1" t="n">
-        <v>43663</v>
+        <v>43662</v>
       </c>
       <c r="I233" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J233" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K233"/>
       <c r="L233"/>
       <c r="M233" t="n">
-        <v>0.729517</v>
+        <v>0.5</v>
       </c>
       <c r="N233"/>
       <c r="O233" t="n">
-        <v>0.729517</v>
+        <v>0.5</v>
       </c>
       <c r="P233" t="n">
         <v>1</v>
@@ -27625,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="W233" t="n">
-        <v>0.729517</v>
+        <v>0.5</v>
       </c>
       <c r="X233" t="n">
         <v>0</v>
@@ -27661,7 +27652,7 @@
         <v>0</v>
       </c>
       <c r="AI233" t="n">
-        <v>0.729517</v>
+        <v>0.5</v>
       </c>
       <c r="AJ233"/>
       <c r="AK233"/>
@@ -27670,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="AN233" t="n">
-        <v>195505</v>
+        <v>195512</v>
       </c>
     </row>
     <row r="234">
@@ -27687,29 +27678,33 @@
         <v>43</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>50</v>
       </c>
       <c r="F234"/>
       <c r="G234" s="1" t="n">
         <v>43658</v>
       </c>
       <c r="H234" s="1" t="n">
-        <v>43662</v>
+        <v>43724</v>
       </c>
       <c r="I234" t="s">
         <v>434</v>
       </c>
       <c r="J234" t="s">
-        <v>435</v>
-      </c>
-      <c r="K234"/>
-      <c r="L234"/>
+        <v>52</v>
+      </c>
+      <c r="K234" t="n">
+        <v>50</v>
+      </c>
+      <c r="L234" t="n">
+        <v>9.279</v>
+      </c>
       <c r="M234" t="n">
-        <v>0.5</v>
+        <v>5.388512</v>
       </c>
       <c r="N234"/>
       <c r="O234" t="n">
-        <v>0.5</v>
+        <v>5.388512</v>
       </c>
       <c r="P234" t="n">
         <v>1</v>
@@ -27733,7 +27728,7 @@
         <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>0.5</v>
+        <v>5.388512</v>
       </c>
       <c r="X234" t="n">
         <v>0</v>
@@ -27769,7 +27764,7 @@
         <v>0</v>
       </c>
       <c r="AI234" t="n">
-        <v>0.5</v>
+        <v>5.388512</v>
       </c>
       <c r="AJ234"/>
       <c r="AK234"/>
@@ -27778,7 +27773,7 @@
         <v>0</v>
       </c>
       <c r="AN234" t="n">
-        <v>195512</v>
+        <v>197773</v>
       </c>
     </row>
     <row r="235">
@@ -27795,33 +27790,29 @@
         <v>43</v>
       </c>
       <c r="E235" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F235"/>
       <c r="G235" s="1" t="n">
-        <v>43658</v>
+        <v>43661</v>
       </c>
       <c r="H235" s="1" t="n">
-        <v>43724</v>
+        <v>43662</v>
       </c>
       <c r="I235" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J235" t="s">
         <v>52</v>
       </c>
-      <c r="K235" t="n">
-        <v>50</v>
-      </c>
-      <c r="L235" t="n">
-        <v>9.279</v>
-      </c>
+      <c r="K235"/>
+      <c r="L235"/>
       <c r="M235" t="n">
-        <v>5.388512</v>
+        <v>2.27532</v>
       </c>
       <c r="N235"/>
       <c r="O235" t="n">
-        <v>5.388512</v>
+        <v>2.27532</v>
       </c>
       <c r="P235" t="n">
         <v>1</v>
@@ -27845,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W235" t="n">
-        <v>5.388512</v>
+        <v>2.27532</v>
       </c>
       <c r="X235" t="n">
         <v>0</v>
@@ -27881,7 +27872,7 @@
         <v>0</v>
       </c>
       <c r="AI235" t="n">
-        <v>5.388512</v>
+        <v>2.27532</v>
       </c>
       <c r="AJ235"/>
       <c r="AK235"/>
@@ -27890,7 +27881,7 @@
         <v>0</v>
       </c>
       <c r="AN235" t="n">
-        <v>197773</v>
+        <v>195502</v>
       </c>
     </row>
     <row r="236">
@@ -27911,25 +27902,29 @@
       </c>
       <c r="F236"/>
       <c r="G236" s="1" t="n">
-        <v>43661</v>
+        <v>43663</v>
       </c>
       <c r="H236" s="1" t="n">
-        <v>43662</v>
+        <v>43712</v>
       </c>
       <c r="I236" t="s">
+        <v>436</v>
+      </c>
+      <c r="J236" t="s">
         <v>437</v>
       </c>
-      <c r="J236" t="s">
-        <v>52</v>
-      </c>
-      <c r="K236"/>
-      <c r="L236"/>
+      <c r="K236" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0.88</v>
+      </c>
       <c r="M236" t="n">
-        <v>2.27532</v>
+        <v>0.454545</v>
       </c>
       <c r="N236"/>
       <c r="O236" t="n">
-        <v>2.27532</v>
+        <v>0.454545</v>
       </c>
       <c r="P236" t="n">
         <v>1</v>
@@ -27953,7 +27948,7 @@
         <v>0</v>
       </c>
       <c r="W236" t="n">
-        <v>2.27532</v>
+        <v>0.454545</v>
       </c>
       <c r="X236" t="n">
         <v>0</v>
@@ -27989,7 +27984,7 @@
         <v>0</v>
       </c>
       <c r="AI236" t="n">
-        <v>2.27532</v>
+        <v>0.454545</v>
       </c>
       <c r="AJ236"/>
       <c r="AK236"/>
@@ -27998,7 +27993,7 @@
         <v>0</v>
       </c>
       <c r="AN236" t="n">
-        <v>195502</v>
+        <v>197422</v>
       </c>
     </row>
     <row r="237">
@@ -28015,33 +28010,33 @@
         <v>43</v>
       </c>
       <c r="E237" t="s">
-        <v>72</v>
+        <v>438</v>
       </c>
       <c r="F237"/>
       <c r="G237" s="1" t="n">
-        <v>43663</v>
+        <v>43646</v>
       </c>
       <c r="H237" s="1" t="n">
-        <v>43712</v>
+        <v>43664</v>
       </c>
       <c r="I237" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J237" t="s">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="K237" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L237" t="n">
-        <v>0.88</v>
+        <v>1.494</v>
       </c>
       <c r="M237" t="n">
-        <v>0.454545</v>
+        <v>0.334672</v>
       </c>
       <c r="N237"/>
       <c r="O237" t="n">
-        <v>0.454545</v>
+        <v>0.334672</v>
       </c>
       <c r="P237" t="n">
         <v>1</v>
@@ -28065,7 +28060,7 @@
         <v>0</v>
       </c>
       <c r="W237" t="n">
-        <v>0.454545</v>
+        <v>0.334672</v>
       </c>
       <c r="X237" t="n">
         <v>0</v>
@@ -28101,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="AI237" t="n">
-        <v>0.454545</v>
+        <v>0.334672</v>
       </c>
       <c r="AJ237"/>
       <c r="AK237"/>
@@ -28110,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="AN237" t="n">
-        <v>197422</v>
+        <v>195671</v>
       </c>
     </row>
     <row r="238">
@@ -28127,33 +28122,33 @@
         <v>43</v>
       </c>
       <c r="E238" t="s">
-        <v>440</v>
+        <v>53</v>
       </c>
       <c r="F238"/>
       <c r="G238" s="1" t="n">
-        <v>43646</v>
+        <v>43606</v>
       </c>
       <c r="H238" s="1" t="n">
-        <v>43664</v>
+        <v>43671</v>
       </c>
       <c r="I238" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J238" t="s">
         <v>52</v>
       </c>
       <c r="K238" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="L238" t="n">
-        <v>1.494</v>
+        <v>0.788</v>
       </c>
       <c r="M238" t="n">
-        <v>0.334672</v>
+        <v>1.522843</v>
       </c>
       <c r="N238"/>
       <c r="O238" t="n">
-        <v>0.334672</v>
+        <v>1.522843</v>
       </c>
       <c r="P238" t="n">
         <v>1</v>
@@ -28177,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="W238" t="n">
-        <v>0.334672</v>
+        <v>1.522843</v>
       </c>
       <c r="X238" t="n">
         <v>0</v>
@@ -28213,7 +28208,7 @@
         <v>0</v>
       </c>
       <c r="AI238" t="n">
-        <v>0.334672</v>
+        <v>1.522843</v>
       </c>
       <c r="AJ238"/>
       <c r="AK238"/>
@@ -28222,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="AN238" t="n">
-        <v>195671</v>
+        <v>191722</v>
       </c>
     </row>
     <row r="239">
@@ -28239,33 +28234,29 @@
         <v>43</v>
       </c>
       <c r="E239" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F239"/>
       <c r="G239" s="1" t="n">
-        <v>43606</v>
+        <v>43668</v>
       </c>
       <c r="H239" s="1" t="n">
-        <v>43671</v>
+        <v>43668</v>
       </c>
       <c r="I239" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J239" t="s">
         <v>52</v>
       </c>
-      <c r="K239" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L239" t="n">
-        <v>0.788</v>
-      </c>
+      <c r="K239"/>
+      <c r="L239"/>
       <c r="M239" t="n">
-        <v>1.522843</v>
+        <v>1.25</v>
       </c>
       <c r="N239"/>
       <c r="O239" t="n">
-        <v>1.522843</v>
+        <v>1.25</v>
       </c>
       <c r="P239" t="n">
         <v>1</v>
@@ -28289,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="W239" t="n">
-        <v>1.522843</v>
+        <v>1.25</v>
       </c>
       <c r="X239" t="n">
         <v>0</v>
@@ -28325,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="AI239" t="n">
-        <v>1.522843</v>
+        <v>1.25</v>
       </c>
       <c r="AJ239"/>
       <c r="AK239"/>
@@ -28334,7 +28325,7 @@
         <v>0</v>
       </c>
       <c r="AN239" t="n">
-        <v>191722</v>
+        <v>195827</v>
       </c>
     </row>
     <row r="240">
@@ -28351,14 +28342,14 @@
         <v>43</v>
       </c>
       <c r="E240" t="s">
-        <v>91</v>
+        <v>442</v>
       </c>
       <c r="F240"/>
       <c r="G240" s="1" t="n">
         <v>43668</v>
       </c>
       <c r="H240" s="1" t="n">
-        <v>43668</v>
+        <v>43671</v>
       </c>
       <c r="I240" t="s">
         <v>443</v>
@@ -28369,11 +28360,11 @@
       <c r="K240"/>
       <c r="L240"/>
       <c r="M240" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="N240"/>
       <c r="O240" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="P240" t="n">
         <v>1</v>
@@ -28397,7 +28388,7 @@
         <v>0</v>
       </c>
       <c r="W240" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="X240" t="n">
         <v>0</v>
@@ -28433,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="AI240" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="AJ240"/>
       <c r="AK240"/>
@@ -28442,7 +28433,7 @@
         <v>0</v>
       </c>
       <c r="AN240" t="n">
-        <v>195827</v>
+        <v>195947</v>
       </c>
     </row>
     <row r="241">
@@ -28459,29 +28450,33 @@
         <v>43</v>
       </c>
       <c r="E241" t="s">
-        <v>344</v>
+        <v>172</v>
       </c>
       <c r="F241"/>
       <c r="G241" s="1" t="n">
-        <v>43668</v>
+        <v>43539</v>
       </c>
       <c r="H241" s="1" t="n">
-        <v>43671</v>
+        <v>44154</v>
       </c>
       <c r="I241" t="s">
         <v>444</v>
       </c>
       <c r="J241" t="s">
-        <v>52</v>
-      </c>
-      <c r="K241"/>
-      <c r="L241"/>
+        <v>445</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0.849</v>
+      </c>
       <c r="M241" t="n">
-        <v>0.13</v>
+        <v>0.706714</v>
       </c>
       <c r="N241"/>
       <c r="O241" t="n">
-        <v>0.13</v>
+        <v>0.706714</v>
       </c>
       <c r="P241" t="n">
         <v>1</v>
@@ -28505,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="W241" t="n">
-        <v>0.13</v>
+        <v>0.706714</v>
       </c>
       <c r="X241" t="n">
         <v>0</v>
@@ -28541,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="AI241" t="n">
-        <v>0.13</v>
+        <v>0.706714</v>
       </c>
       <c r="AJ241"/>
       <c r="AK241"/>
@@ -28550,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="AN241" t="n">
-        <v>195947</v>
+        <v>195823</v>
       </c>
     </row>
     <row r="242">
@@ -28567,33 +28562,29 @@
         <v>43</v>
       </c>
       <c r="E242" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="F242"/>
       <c r="G242" s="1" t="n">
-        <v>43539</v>
+        <v>43654</v>
       </c>
       <c r="H242" s="1" t="n">
-        <v>44154</v>
+        <v>43766</v>
       </c>
       <c r="I242" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J242" t="s">
-        <v>446</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L242" t="n">
-        <v>0.849</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="K242"/>
+      <c r="L242"/>
       <c r="M242" t="n">
-        <v>0.706714</v>
+        <v>1</v>
       </c>
       <c r="N242"/>
       <c r="O242" t="n">
-        <v>0.706714</v>
+        <v>1</v>
       </c>
       <c r="P242" t="n">
         <v>1</v>
@@ -28617,7 +28608,7 @@
         <v>0</v>
       </c>
       <c r="W242" t="n">
-        <v>0.706714</v>
+        <v>1</v>
       </c>
       <c r="X242" t="n">
         <v>0</v>
@@ -28653,7 +28644,7 @@
         <v>0</v>
       </c>
       <c r="AI242" t="n">
-        <v>0.706714</v>
+        <v>1</v>
       </c>
       <c r="AJ242"/>
       <c r="AK242"/>
@@ -28662,7 +28653,7 @@
         <v>0</v>
       </c>
       <c r="AN242" t="n">
-        <v>195823</v>
+        <v>195673</v>
       </c>
     </row>
     <row r="243">
@@ -28679,29 +28670,33 @@
         <v>43</v>
       </c>
       <c r="E243" t="s">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="F243"/>
       <c r="G243" s="1" t="n">
-        <v>43654</v>
+        <v>43670</v>
       </c>
       <c r="H243" s="1" t="n">
-        <v>43766</v>
+        <v>43796</v>
       </c>
       <c r="I243" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J243" t="s">
-        <v>448</v>
-      </c>
-      <c r="K243"/>
-      <c r="L243"/>
+        <v>52</v>
+      </c>
+      <c r="K243" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.788</v>
+      </c>
       <c r="M243" t="n">
-        <v>1</v>
+        <v>4.263959</v>
       </c>
       <c r="N243"/>
       <c r="O243" t="n">
-        <v>1</v>
+        <v>4.263959</v>
       </c>
       <c r="P243" t="n">
         <v>1</v>
@@ -28725,7 +28720,7 @@
         <v>0</v>
       </c>
       <c r="W243" t="n">
-        <v>1</v>
+        <v>4.263959</v>
       </c>
       <c r="X243" t="n">
         <v>0</v>
@@ -28761,7 +28756,7 @@
         <v>0</v>
       </c>
       <c r="AI243" t="n">
-        <v>1</v>
+        <v>4.263959</v>
       </c>
       <c r="AJ243"/>
       <c r="AK243"/>
@@ -28770,7 +28765,7 @@
         <v>0</v>
       </c>
       <c r="AN243" t="n">
-        <v>195673</v>
+        <v>196039</v>
       </c>
     </row>
     <row r="244">
@@ -28787,33 +28782,33 @@
         <v>43</v>
       </c>
       <c r="E244" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F244"/>
       <c r="G244" s="1" t="n">
-        <v>43670</v>
+        <v>43672</v>
       </c>
       <c r="H244" s="1" t="n">
         <v>43796</v>
       </c>
       <c r="I244" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J244" t="s">
         <v>52</v>
       </c>
       <c r="K244" t="n">
-        <v>3.36</v>
+        <v>0.399748</v>
       </c>
       <c r="L244" t="n">
         <v>0.788</v>
       </c>
       <c r="M244" t="n">
-        <v>4.263959</v>
+        <v>0.507294</v>
       </c>
       <c r="N244"/>
       <c r="O244" t="n">
-        <v>4.263959</v>
+        <v>0.507294</v>
       </c>
       <c r="P244" t="n">
         <v>1</v>
@@ -28837,7 +28832,7 @@
         <v>0</v>
       </c>
       <c r="W244" t="n">
-        <v>4.263959</v>
+        <v>0.507294</v>
       </c>
       <c r="X244" t="n">
         <v>0</v>
@@ -28873,7 +28868,7 @@
         <v>0</v>
       </c>
       <c r="AI244" t="n">
-        <v>4.263959</v>
+        <v>0.507294</v>
       </c>
       <c r="AJ244"/>
       <c r="AK244"/>
@@ -28882,7 +28877,7 @@
         <v>0</v>
       </c>
       <c r="AN244" t="n">
-        <v>196039</v>
+        <v>195987</v>
       </c>
     </row>
     <row r="245">
@@ -28899,33 +28894,33 @@
         <v>43</v>
       </c>
       <c r="E245" t="s">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="F245"/>
       <c r="G245" s="1" t="n">
-        <v>43672</v>
+        <v>43677</v>
       </c>
       <c r="H245" s="1" t="n">
-        <v>43796</v>
+        <v>43754</v>
       </c>
       <c r="I245" t="s">
         <v>450</v>
       </c>
       <c r="J245" t="s">
-        <v>52</v>
+        <v>451</v>
       </c>
       <c r="K245" t="n">
-        <v>0.399748</v>
+        <v>0.5</v>
       </c>
       <c r="L245" t="n">
-        <v>0.788</v>
+        <v>0.977</v>
       </c>
       <c r="M245" t="n">
-        <v>0.507294</v>
+        <v>0.511771</v>
       </c>
       <c r="N245"/>
       <c r="O245" t="n">
-        <v>0.507294</v>
+        <v>0.511771</v>
       </c>
       <c r="P245" t="n">
         <v>1</v>
@@ -28949,7 +28944,7 @@
         <v>0</v>
       </c>
       <c r="W245" t="n">
-        <v>0.507294</v>
+        <v>0.511771</v>
       </c>
       <c r="X245" t="n">
         <v>0</v>
@@ -28985,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="AI245" t="n">
-        <v>0.507294</v>
+        <v>0.511771</v>
       </c>
       <c r="AJ245"/>
       <c r="AK245"/>
@@ -28994,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="AN245" t="n">
-        <v>195987</v>
+        <v>196824</v>
       </c>
     </row>
     <row r="246">
@@ -29018,26 +29013,26 @@
         <v>43677</v>
       </c>
       <c r="H246" s="1" t="n">
-        <v>43754</v>
+        <v>43696</v>
       </c>
       <c r="I246" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J246" t="s">
-        <v>452</v>
+        <v>256</v>
       </c>
       <c r="K246" t="n">
-        <v>0.5</v>
+        <v>0.221</v>
       </c>
       <c r="L246" t="n">
         <v>0.977</v>
       </c>
       <c r="M246" t="n">
-        <v>0.511771</v>
+        <v>0.226203</v>
       </c>
       <c r="N246"/>
       <c r="O246" t="n">
-        <v>0.511771</v>
+        <v>0.226203</v>
       </c>
       <c r="P246" t="n">
         <v>1</v>
@@ -29061,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="W246" t="n">
-        <v>0.511771</v>
+        <v>0.226203</v>
       </c>
       <c r="X246" t="n">
         <v>0</v>
@@ -29097,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="AI246" t="n">
-        <v>0.511771</v>
+        <v>0.226203</v>
       </c>
       <c r="AJ246"/>
       <c r="AK246"/>
@@ -29106,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="AN246" t="n">
-        <v>196824</v>
+        <v>196827</v>
       </c>
     </row>
     <row r="247">
@@ -29136,20 +29131,20 @@
         <v>453</v>
       </c>
       <c r="J247" t="s">
-        <v>256</v>
+        <v>454</v>
       </c>
       <c r="K247" t="n">
-        <v>0.221</v>
+        <v>0.05</v>
       </c>
       <c r="L247" t="n">
         <v>0.977</v>
       </c>
       <c r="M247" t="n">
-        <v>0.226203</v>
+        <v>0.051177</v>
       </c>
       <c r="N247"/>
       <c r="O247" t="n">
-        <v>0.226203</v>
+        <v>0.051177</v>
       </c>
       <c r="P247" t="n">
         <v>1</v>
@@ -29173,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="W247" t="n">
-        <v>0.226203</v>
+        <v>0.051177</v>
       </c>
       <c r="X247" t="n">
         <v>0</v>
@@ -29209,7 +29204,7 @@
         <v>0</v>
       </c>
       <c r="AI247" t="n">
-        <v>0.226203</v>
+        <v>0.051177</v>
       </c>
       <c r="AJ247"/>
       <c r="AK247"/>
@@ -29218,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="AN247" t="n">
-        <v>196827</v>
+        <v>196851</v>
       </c>
     </row>
     <row r="248">
@@ -29235,33 +29230,29 @@
         <v>43</v>
       </c>
       <c r="E248" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="F248"/>
       <c r="G248" s="1" t="n">
         <v>43677</v>
       </c>
       <c r="H248" s="1" t="n">
-        <v>43696</v>
+        <v>43754</v>
       </c>
       <c r="I248" t="s">
-        <v>454</v>
+        <v>137</v>
       </c>
       <c r="J248" t="s">
         <v>455</v>
       </c>
-      <c r="K248" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L248" t="n">
-        <v>0.977</v>
-      </c>
+      <c r="K248"/>
+      <c r="L248"/>
       <c r="M248" t="n">
-        <v>0.051177</v>
+        <v>0.0324</v>
       </c>
       <c r="N248"/>
       <c r="O248" t="n">
-        <v>0.051177</v>
+        <v>0.0324</v>
       </c>
       <c r="P248" t="n">
         <v>1</v>
@@ -29285,7 +29276,7 @@
         <v>0</v>
       </c>
       <c r="W248" t="n">
-        <v>0.051177</v>
+        <v>0.0324</v>
       </c>
       <c r="X248" t="n">
         <v>0</v>
@@ -29321,7 +29312,7 @@
         <v>0</v>
       </c>
       <c r="AI248" t="n">
-        <v>0.051177</v>
+        <v>0.0324</v>
       </c>
       <c r="AJ248"/>
       <c r="AK248"/>
@@ -29330,7 +29321,7 @@
         <v>0</v>
       </c>
       <c r="AN248" t="n">
-        <v>196851</v>
+        <v>199356</v>
       </c>
     </row>
     <row r="249">
@@ -29365,11 +29356,11 @@
       <c r="K249"/>
       <c r="L249"/>
       <c r="M249" t="n">
-        <v>0.0324</v>
+        <v>0.009152</v>
       </c>
       <c r="N249"/>
       <c r="O249" t="n">
-        <v>0.0324</v>
+        <v>0.009152</v>
       </c>
       <c r="P249" t="n">
         <v>1</v>
@@ -29393,7 +29384,7 @@
         <v>0</v>
       </c>
       <c r="W249" t="n">
-        <v>0.0324</v>
+        <v>0.009152</v>
       </c>
       <c r="X249" t="n">
         <v>0</v>
@@ -29429,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="AI249" t="n">
-        <v>0.0324</v>
+        <v>0.009152</v>
       </c>
       <c r="AJ249"/>
       <c r="AK249"/>
@@ -29438,7 +29429,7 @@
         <v>0</v>
       </c>
       <c r="AN249" t="n">
-        <v>199356</v>
+        <v>199359</v>
       </c>
     </row>
     <row r="250">
@@ -29455,29 +29446,33 @@
         <v>43</v>
       </c>
       <c r="E250" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="F250"/>
       <c r="G250" s="1" t="n">
-        <v>43677</v>
+        <v>43685</v>
       </c>
       <c r="H250" s="1" t="n">
-        <v>43754</v>
+        <v>43720</v>
       </c>
       <c r="I250" t="s">
-        <v>137</v>
+        <v>457</v>
       </c>
       <c r="J250" t="s">
-        <v>457</v>
-      </c>
-      <c r="K250"/>
-      <c r="L250"/>
+        <v>52</v>
+      </c>
+      <c r="K250" t="n">
+        <v>55.697516</v>
+      </c>
+      <c r="L250" t="n">
+        <v>107.73</v>
+      </c>
       <c r="M250" t="n">
-        <v>0.009152</v>
+        <v>0.51701</v>
       </c>
       <c r="N250"/>
       <c r="O250" t="n">
-        <v>0.009152</v>
+        <v>0.51701</v>
       </c>
       <c r="P250" t="n">
         <v>1</v>
@@ -29501,10 +29496,10 @@
         <v>0</v>
       </c>
       <c r="W250" t="n">
-        <v>0.009152</v>
+        <v>0</v>
       </c>
       <c r="X250" t="n">
-        <v>0</v>
+        <v>0.51701</v>
       </c>
       <c r="Y250" t="n">
         <v>0</v>
@@ -29537,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="AI250" t="n">
-        <v>0.009152</v>
+        <v>0.51701</v>
       </c>
       <c r="AJ250"/>
       <c r="AK250"/>
@@ -29546,7 +29541,7 @@
         <v>0</v>
       </c>
       <c r="AN250" t="n">
-        <v>199359</v>
+        <v>197727</v>
       </c>
     </row>
     <row r="251">
@@ -29563,33 +29558,29 @@
         <v>43</v>
       </c>
       <c r="E251" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F251"/>
       <c r="G251" s="1" t="n">
-        <v>43685</v>
+        <v>43693</v>
       </c>
       <c r="H251" s="1" t="n">
-        <v>43720</v>
+        <v>43726</v>
       </c>
       <c r="I251" t="s">
+        <v>119</v>
+      </c>
+      <c r="J251" t="s">
         <v>458</v>
       </c>
-      <c r="J251" t="s">
-        <v>52</v>
-      </c>
-      <c r="K251" t="n">
-        <v>55.697516</v>
-      </c>
-      <c r="L251" t="n">
-        <v>107.73</v>
-      </c>
+      <c r="K251"/>
+      <c r="L251"/>
       <c r="M251" t="n">
-        <v>0.51701</v>
+        <v>0.008025</v>
       </c>
       <c r="N251"/>
       <c r="O251" t="n">
-        <v>0.51701</v>
+        <v>0.008025</v>
       </c>
       <c r="P251" t="n">
         <v>1</v>
@@ -29616,7 +29607,7 @@
         <v>0</v>
       </c>
       <c r="X251" t="n">
-        <v>0.51701</v>
+        <v>0.008025</v>
       </c>
       <c r="Y251" t="n">
         <v>0</v>
@@ -29649,7 +29640,7 @@
         <v>0</v>
       </c>
       <c r="AI251" t="n">
-        <v>0.51701</v>
+        <v>0.008025</v>
       </c>
       <c r="AJ251"/>
       <c r="AK251"/>
@@ -29658,7 +29649,7 @@
         <v>0</v>
       </c>
       <c r="AN251" t="n">
-        <v>197727</v>
+        <v>197944</v>
       </c>
     </row>
     <row r="252">
@@ -29675,33 +29666,29 @@
         <v>43</v>
       </c>
       <c r="E252" t="s">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="F252"/>
       <c r="G252" s="1" t="n">
-        <v>43553</v>
+        <v>43693</v>
       </c>
       <c r="H252" s="1" t="n">
-        <v>43711</v>
+        <v>43726</v>
       </c>
       <c r="I252" t="s">
-        <v>460</v>
+        <v>119</v>
       </c>
       <c r="J252" t="s">
-        <v>52</v>
-      </c>
-      <c r="K252" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L252" t="n">
-        <v>9.27</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="K252"/>
+      <c r="L252"/>
       <c r="M252" t="n">
-        <v>0.453074</v>
+        <v>0.04485</v>
       </c>
       <c r="N252"/>
       <c r="O252" t="n">
-        <v>0.453074</v>
+        <v>0.04485</v>
       </c>
       <c r="P252" t="n">
         <v>1</v>
@@ -29728,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="X252" t="n">
-        <v>0.453074</v>
+        <v>0.04485</v>
       </c>
       <c r="Y252" t="n">
         <v>0</v>
@@ -29761,7 +29748,7 @@
         <v>0</v>
       </c>
       <c r="AI252" t="n">
-        <v>0.453074</v>
+        <v>0.04485</v>
       </c>
       <c r="AJ252"/>
       <c r="AK252"/>
@@ -29770,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="AN252" t="n">
-        <v>197385</v>
+        <v>197946</v>
       </c>
     </row>
     <row r="253">
@@ -29787,33 +29774,29 @@
         <v>43</v>
       </c>
       <c r="E253" t="s">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="F253"/>
       <c r="G253" s="1" t="n">
-        <v>43601</v>
+        <v>43693</v>
       </c>
       <c r="H253" s="1" t="n">
-        <v>43711</v>
+        <v>43762</v>
       </c>
       <c r="I253" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="J253" t="s">
-        <v>52</v>
-      </c>
-      <c r="K253" t="n">
-        <v>4.246</v>
-      </c>
-      <c r="L253" t="n">
-        <v>9.525</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="K253"/>
+      <c r="L253"/>
       <c r="M253" t="n">
-        <v>0.445774</v>
+        <v>0.442567</v>
       </c>
       <c r="N253"/>
       <c r="O253" t="n">
-        <v>0.445774</v>
+        <v>0.442567</v>
       </c>
       <c r="P253" t="n">
         <v>1</v>
@@ -29840,7 +29823,7 @@
         <v>0</v>
       </c>
       <c r="X253" t="n">
-        <v>0.445774</v>
+        <v>0.442567</v>
       </c>
       <c r="Y253" t="n">
         <v>0</v>
@@ -29873,7 +29856,7 @@
         <v>0</v>
       </c>
       <c r="AI253" t="n">
-        <v>0.445774</v>
+        <v>0.442567</v>
       </c>
       <c r="AJ253"/>
       <c r="AK253"/>
@@ -29882,7 +29865,7 @@
         <v>0</v>
       </c>
       <c r="AN253" t="n">
-        <v>197386</v>
+        <v>200107</v>
       </c>
     </row>
     <row r="254">
@@ -29899,29 +29882,33 @@
         <v>43</v>
       </c>
       <c r="E254" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="F254"/>
       <c r="G254" s="1" t="n">
-        <v>43693</v>
+        <v>43696</v>
       </c>
       <c r="H254" s="1" t="n">
-        <v>43726</v>
+        <v>43791</v>
       </c>
       <c r="I254" t="s">
-        <v>119</v>
+        <v>461</v>
       </c>
       <c r="J254" t="s">
-        <v>461</v>
-      </c>
-      <c r="K254"/>
-      <c r="L254"/>
+        <v>462</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.992</v>
+      </c>
       <c r="M254" t="n">
-        <v>0.008025</v>
+        <v>0.100806</v>
       </c>
       <c r="N254"/>
       <c r="O254" t="n">
-        <v>0.008025</v>
+        <v>0.100806</v>
       </c>
       <c r="P254" t="n">
         <v>1</v>
@@ -29948,7 +29935,7 @@
         <v>0</v>
       </c>
       <c r="X254" t="n">
-        <v>0.008025</v>
+        <v>0.100806</v>
       </c>
       <c r="Y254" t="n">
         <v>0</v>
@@ -29981,7 +29968,7 @@
         <v>0</v>
       </c>
       <c r="AI254" t="n">
-        <v>0.008025</v>
+        <v>0.100806</v>
       </c>
       <c r="AJ254"/>
       <c r="AK254"/>
@@ -29990,7 +29977,7 @@
         <v>0</v>
       </c>
       <c r="AN254" t="n">
-        <v>197944</v>
+        <v>201835</v>
       </c>
     </row>
     <row r="255">
@@ -30007,29 +29994,29 @@
         <v>43</v>
       </c>
       <c r="E255" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="F255"/>
       <c r="G255" s="1" t="n">
-        <v>43693</v>
+        <v>43698</v>
       </c>
       <c r="H255" s="1" t="n">
-        <v>43726</v>
+        <v>43754</v>
       </c>
       <c r="I255" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J255" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K255"/>
       <c r="L255"/>
       <c r="M255" t="n">
-        <v>0.04485</v>
+        <v>0.002643</v>
       </c>
       <c r="N255"/>
       <c r="O255" t="n">
-        <v>0.04485</v>
+        <v>0.002643</v>
       </c>
       <c r="P255" t="n">
         <v>1</v>
@@ -30056,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="X255" t="n">
-        <v>0.04485</v>
+        <v>0.002643</v>
       </c>
       <c r="Y255" t="n">
         <v>0</v>
@@ -30089,7 +30076,7 @@
         <v>0</v>
       </c>
       <c r="AI255" t="n">
-        <v>0.04485</v>
+        <v>0.002643</v>
       </c>
       <c r="AJ255"/>
       <c r="AK255"/>
@@ -30098,7 +30085,7 @@
         <v>0</v>
       </c>
       <c r="AN255" t="n">
-        <v>197946</v>
+        <v>199357</v>
       </c>
     </row>
     <row r="256">
@@ -30115,29 +30102,33 @@
         <v>43</v>
       </c>
       <c r="E256" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="F256"/>
       <c r="G256" s="1" t="n">
-        <v>43693</v>
+        <v>43699</v>
       </c>
       <c r="H256" s="1" t="n">
-        <v>43762</v>
+        <v>43754</v>
       </c>
       <c r="I256" t="s">
-        <v>376</v>
+        <v>464</v>
       </c>
       <c r="J256" t="s">
-        <v>463</v>
-      </c>
-      <c r="K256"/>
-      <c r="L256"/>
+        <v>465</v>
+      </c>
+      <c r="K256" t="n">
+        <v>3</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.894</v>
+      </c>
       <c r="M256" t="n">
-        <v>0.442567</v>
+        <v>3.355705</v>
       </c>
       <c r="N256"/>
       <c r="O256" t="n">
-        <v>0.442567</v>
+        <v>3.355705</v>
       </c>
       <c r="P256" t="n">
         <v>1</v>
@@ -30164,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="X256" t="n">
-        <v>0.442567</v>
+        <v>3.355705</v>
       </c>
       <c r="Y256" t="n">
         <v>0</v>
@@ -30197,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="AI256" t="n">
-        <v>0.442567</v>
+        <v>3.355705</v>
       </c>
       <c r="AJ256"/>
       <c r="AK256"/>
@@ -30206,7 +30197,7 @@
         <v>0</v>
       </c>
       <c r="AN256" t="n">
-        <v>200107</v>
+        <v>197183</v>
       </c>
     </row>
     <row r="257">
@@ -30223,33 +30214,29 @@
         <v>43</v>
       </c>
       <c r="E257" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="F257"/>
       <c r="G257" s="1" t="n">
-        <v>43696</v>
+        <v>43705</v>
       </c>
       <c r="H257" s="1" t="n">
-        <v>43791</v>
+        <v>43762</v>
       </c>
       <c r="I257" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="J257" t="s">
-        <v>465</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L257" t="n">
-        <v>0.992</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="K257"/>
+      <c r="L257"/>
       <c r="M257" t="n">
-        <v>0.100806</v>
+        <v>0.067312</v>
       </c>
       <c r="N257"/>
       <c r="O257" t="n">
-        <v>0.100806</v>
+        <v>0.067312</v>
       </c>
       <c r="P257" t="n">
         <v>1</v>
@@ -30276,7 +30263,7 @@
         <v>0</v>
       </c>
       <c r="X257" t="n">
-        <v>0.100806</v>
+        <v>0.067312</v>
       </c>
       <c r="Y257" t="n">
         <v>0</v>
@@ -30309,7 +30296,7 @@
         <v>0</v>
       </c>
       <c r="AI257" t="n">
-        <v>0.100806</v>
+        <v>0.067312</v>
       </c>
       <c r="AJ257"/>
       <c r="AK257"/>
@@ -30318,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="AN257" t="n">
-        <v>201835</v>
+        <v>200106</v>
       </c>
     </row>
     <row r="258">
@@ -30335,11 +30322,11 @@
         <v>43</v>
       </c>
       <c r="E258" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F258"/>
       <c r="G258" s="1" t="n">
-        <v>43698</v>
+        <v>43707</v>
       </c>
       <c r="H258" s="1" t="n">
         <v>43754</v>
@@ -30348,16 +30335,16 @@
         <v>137</v>
       </c>
       <c r="J258" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K258"/>
       <c r="L258"/>
       <c r="M258" t="n">
-        <v>0.002643</v>
+        <v>2.023381</v>
       </c>
       <c r="N258"/>
       <c r="O258" t="n">
-        <v>0.002643</v>
+        <v>2.023381</v>
       </c>
       <c r="P258" t="n">
         <v>1</v>
@@ -30384,7 +30371,7 @@
         <v>0</v>
       </c>
       <c r="X258" t="n">
-        <v>0.002643</v>
+        <v>2.023381</v>
       </c>
       <c r="Y258" t="n">
         <v>0</v>
@@ -30417,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="AI258" t="n">
-        <v>0.002643</v>
+        <v>2.023381</v>
       </c>
       <c r="AJ258"/>
       <c r="AK258"/>
@@ -30426,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="AN258" t="n">
-        <v>199357</v>
+        <v>199340</v>
       </c>
     </row>
     <row r="259">
@@ -30443,33 +30430,33 @@
         <v>43</v>
       </c>
       <c r="E259" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="F259"/>
       <c r="G259" s="1" t="n">
-        <v>43699</v>
+        <v>43712</v>
       </c>
       <c r="H259" s="1" t="n">
-        <v>43754</v>
+        <v>43768</v>
       </c>
       <c r="I259" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J259" t="s">
-        <v>468</v>
+        <v>256</v>
       </c>
       <c r="K259" t="n">
-        <v>3</v>
+        <v>0.241</v>
       </c>
       <c r="L259" t="n">
-        <v>0.894</v>
+        <v>0.992</v>
       </c>
       <c r="M259" t="n">
-        <v>3.355705</v>
+        <v>0.242944</v>
       </c>
       <c r="N259"/>
       <c r="O259" t="n">
-        <v>3.355705</v>
+        <v>0.242944</v>
       </c>
       <c r="P259" t="n">
         <v>1</v>
@@ -30496,10 +30483,10 @@
         <v>0</v>
       </c>
       <c r="X259" t="n">
-        <v>3.355705</v>
+        <v>0</v>
       </c>
       <c r="Y259" t="n">
-        <v>0</v>
+        <v>0.242944</v>
       </c>
       <c r="Z259" t="n">
         <v>0</v>
@@ -30529,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="AI259" t="n">
-        <v>3.355705</v>
+        <v>0.242944</v>
       </c>
       <c r="AJ259"/>
       <c r="AK259"/>
@@ -30538,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="AN259" t="n">
-        <v>197183</v>
+        <v>200478</v>
       </c>
     </row>
     <row r="260">
@@ -30559,13 +30546,13 @@
       </c>
       <c r="F260"/>
       <c r="G260" s="1" t="n">
-        <v>43705</v>
+        <v>43717</v>
       </c>
       <c r="H260" s="1" t="n">
         <v>43762</v>
       </c>
       <c r="I260" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="J260" t="s">
         <v>469</v>
@@ -30573,11 +30560,11 @@
       <c r="K260"/>
       <c r="L260"/>
       <c r="M260" t="n">
-        <v>0.067312</v>
+        <v>0.078559</v>
       </c>
       <c r="N260"/>
       <c r="O260" t="n">
-        <v>0.067312</v>
+        <v>0.078559</v>
       </c>
       <c r="P260" t="n">
         <v>1</v>
@@ -30604,10 +30591,10 @@
         <v>0</v>
       </c>
       <c r="X260" t="n">
-        <v>0.067312</v>
+        <v>0</v>
       </c>
       <c r="Y260" t="n">
-        <v>0</v>
+        <v>0.078559</v>
       </c>
       <c r="Z260" t="n">
         <v>0</v>
@@ -30637,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="AI260" t="n">
-        <v>0.067312</v>
+        <v>0.078559</v>
       </c>
       <c r="AJ260"/>
       <c r="AK260"/>
@@ -30646,7 +30633,7 @@
         <v>0</v>
       </c>
       <c r="AN260" t="n">
-        <v>200106</v>
+        <v>200108</v>
       </c>
     </row>
     <row r="261">
@@ -30663,29 +30650,33 @@
         <v>43</v>
       </c>
       <c r="E261" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="F261"/>
       <c r="G261" s="1" t="n">
-        <v>43707</v>
+        <v>43721</v>
       </c>
       <c r="H261" s="1" t="n">
-        <v>43754</v>
+        <v>43739</v>
       </c>
       <c r="I261" t="s">
-        <v>137</v>
+        <v>470</v>
       </c>
       <c r="J261" t="s">
-        <v>470</v>
-      </c>
-      <c r="K261"/>
-      <c r="L261"/>
+        <v>52</v>
+      </c>
+      <c r="K261" t="n">
+        <v>15.939856</v>
+      </c>
+      <c r="L261" t="n">
+        <v>108.05</v>
+      </c>
       <c r="M261" t="n">
-        <v>2.023381</v>
+        <v>0.147523</v>
       </c>
       <c r="N261"/>
       <c r="O261" t="n">
-        <v>2.023381</v>
+        <v>0.147523</v>
       </c>
       <c r="P261" t="n">
         <v>1</v>
@@ -30712,10 +30703,10 @@
         <v>0</v>
       </c>
       <c r="X261" t="n">
-        <v>2.023381</v>
+        <v>0</v>
       </c>
       <c r="Y261" t="n">
-        <v>0</v>
+        <v>0.147523</v>
       </c>
       <c r="Z261" t="n">
         <v>0</v>
@@ -30745,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="AI261" t="n">
-        <v>2.023381</v>
+        <v>0.147523</v>
       </c>
       <c r="AJ261"/>
       <c r="AK261"/>
@@ -30754,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="AN261" t="n">
-        <v>199340</v>
+        <v>198532</v>
       </c>
     </row>
     <row r="262">
@@ -30771,33 +30762,33 @@
         <v>43</v>
       </c>
       <c r="E262" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="F262"/>
       <c r="G262" s="1" t="n">
-        <v>43712</v>
+        <v>43721</v>
       </c>
       <c r="H262" s="1" t="n">
-        <v>43768</v>
+        <v>43791</v>
       </c>
       <c r="I262" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="J262" t="s">
-        <v>256</v>
+        <v>472</v>
       </c>
       <c r="K262" t="n">
-        <v>0.241</v>
+        <v>0.3</v>
       </c>
       <c r="L262" t="n">
         <v>0.992</v>
       </c>
       <c r="M262" t="n">
-        <v>0.242944</v>
+        <v>0.302419</v>
       </c>
       <c r="N262"/>
       <c r="O262" t="n">
-        <v>0.242944</v>
+        <v>0.302419</v>
       </c>
       <c r="P262" t="n">
         <v>1</v>
@@ -30827,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Y262" t="n">
-        <v>0.242944</v>
+        <v>0.302419</v>
       </c>
       <c r="Z262" t="n">
         <v>0</v>
@@ -30857,7 +30848,7 @@
         <v>0</v>
       </c>
       <c r="AI262" t="n">
-        <v>0.242944</v>
+        <v>0.302419</v>
       </c>
       <c r="AJ262"/>
       <c r="AK262"/>
@@ -30866,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="AN262" t="n">
-        <v>200478</v>
+        <v>201836</v>
       </c>
     </row>
     <row r="263">
@@ -30887,25 +30878,25 @@
       </c>
       <c r="F263"/>
       <c r="G263" s="1" t="n">
-        <v>43717</v>
+        <v>43724</v>
       </c>
       <c r="H263" s="1" t="n">
-        <v>43762</v>
+        <v>43754</v>
       </c>
       <c r="I263" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J263" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K263"/>
       <c r="L263"/>
       <c r="M263" t="n">
-        <v>0.078559</v>
+        <v>20.5</v>
       </c>
       <c r="N263"/>
       <c r="O263" t="n">
-        <v>0.078559</v>
+        <v>20.5</v>
       </c>
       <c r="P263" t="n">
         <v>1</v>
@@ -30935,7 +30926,7 @@
         <v>0</v>
       </c>
       <c r="Y263" t="n">
-        <v>0.078559</v>
+        <v>20.5</v>
       </c>
       <c r="Z263" t="n">
         <v>0</v>
@@ -30965,7 +30956,7 @@
         <v>0</v>
       </c>
       <c r="AI263" t="n">
-        <v>0.078559</v>
+        <v>20.5</v>
       </c>
       <c r="AJ263"/>
       <c r="AK263"/>
@@ -30974,7 +30965,7 @@
         <v>0</v>
       </c>
       <c r="AN263" t="n">
-        <v>200108</v>
+        <v>199038</v>
       </c>
     </row>
     <row r="264">
@@ -30991,33 +30982,29 @@
         <v>43</v>
       </c>
       <c r="E264" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F264"/>
       <c r="G264" s="1" t="n">
-        <v>43721</v>
+        <v>43728</v>
       </c>
       <c r="H264" s="1" t="n">
-        <v>43739</v>
+        <v>43762</v>
       </c>
       <c r="I264" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J264" t="s">
-        <v>52</v>
-      </c>
-      <c r="K264" t="n">
-        <v>15.939856</v>
-      </c>
-      <c r="L264" t="n">
-        <v>108.05</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="K264"/>
+      <c r="L264"/>
       <c r="M264" t="n">
-        <v>0.147523</v>
+        <v>0.440884</v>
       </c>
       <c r="N264"/>
       <c r="O264" t="n">
-        <v>0.147523</v>
+        <v>0.440884</v>
       </c>
       <c r="P264" t="n">
         <v>1</v>
@@ -31047,7 +31034,7 @@
         <v>0</v>
       </c>
       <c r="Y264" t="n">
-        <v>0.147523</v>
+        <v>0.440884</v>
       </c>
       <c r="Z264" t="n">
         <v>0</v>
@@ -31077,7 +31064,7 @@
         <v>0</v>
       </c>
       <c r="AI264" t="n">
-        <v>0.147523</v>
+        <v>0.440884</v>
       </c>
       <c r="AJ264"/>
       <c r="AK264"/>
@@ -31086,7 +31073,7 @@
         <v>0</v>
       </c>
       <c r="AN264" t="n">
-        <v>198532</v>
+        <v>191288</v>
       </c>
     </row>
     <row r="265">
@@ -31103,33 +31090,29 @@
         <v>43</v>
       </c>
       <c r="E265" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="F265"/>
       <c r="G265" s="1" t="n">
-        <v>43721</v>
+        <v>43732</v>
       </c>
       <c r="H265" s="1" t="n">
-        <v>43791</v>
+        <v>43762</v>
       </c>
       <c r="I265" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="J265" t="s">
-        <v>475</v>
-      </c>
-      <c r="K265" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L265" t="n">
-        <v>0.992</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="K265"/>
+      <c r="L265"/>
       <c r="M265" t="n">
-        <v>0.302419</v>
+        <v>0.025463</v>
       </c>
       <c r="N265"/>
       <c r="O265" t="n">
-        <v>0.302419</v>
+        <v>0.025463</v>
       </c>
       <c r="P265" t="n">
         <v>1</v>
@@ -31159,7 +31142,7 @@
         <v>0</v>
       </c>
       <c r="Y265" t="n">
-        <v>0.302419</v>
+        <v>0.025463</v>
       </c>
       <c r="Z265" t="n">
         <v>0</v>
@@ -31189,7 +31172,7 @@
         <v>0</v>
       </c>
       <c r="AI265" t="n">
-        <v>0.302419</v>
+        <v>0.025463</v>
       </c>
       <c r="AJ265"/>
       <c r="AK265"/>
@@ -31198,7 +31181,7 @@
         <v>0</v>
       </c>
       <c r="AN265" t="n">
-        <v>201836</v>
+        <v>200109</v>
       </c>
     </row>
     <row r="266">
@@ -31215,29 +31198,33 @@
         <v>43</v>
       </c>
       <c r="E266" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F266"/>
       <c r="G266" s="1" t="n">
-        <v>43724</v>
+        <v>43734</v>
       </c>
       <c r="H266" s="1" t="n">
-        <v>43754</v>
+        <v>43745</v>
       </c>
       <c r="I266" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="J266" t="s">
-        <v>477</v>
-      </c>
-      <c r="K266"/>
-      <c r="L266"/>
+        <v>52</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L266" t="n">
+        <v>9.754</v>
+      </c>
       <c r="M266" t="n">
-        <v>20.5</v>
+        <v>0.044084</v>
       </c>
       <c r="N266"/>
       <c r="O266" t="n">
-        <v>20.5</v>
+        <v>0.044084</v>
       </c>
       <c r="P266" t="n">
         <v>1</v>
@@ -31267,7 +31254,7 @@
         <v>0</v>
       </c>
       <c r="Y266" t="n">
-        <v>20.5</v>
+        <v>0.044084</v>
       </c>
       <c r="Z266" t="n">
         <v>0</v>
@@ -31297,7 +31284,7 @@
         <v>0</v>
       </c>
       <c r="AI266" t="n">
-        <v>20.5</v>
+        <v>0.044084</v>
       </c>
       <c r="AJ266"/>
       <c r="AK266"/>
@@ -31306,7 +31293,7 @@
         <v>0</v>
       </c>
       <c r="AN266" t="n">
-        <v>199038</v>
+        <v>198750</v>
       </c>
     </row>
     <row r="267">
@@ -31323,29 +31310,33 @@
         <v>43</v>
       </c>
       <c r="E267" t="s">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="F267"/>
       <c r="G267" s="1" t="n">
-        <v>43728</v>
+        <v>43735</v>
       </c>
       <c r="H267" s="1" t="n">
-        <v>43762</v>
+        <v>43796</v>
       </c>
       <c r="I267" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J267" t="s">
-        <v>479</v>
-      </c>
-      <c r="K267"/>
-      <c r="L267"/>
+        <v>52</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.562525</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.812</v>
+      </c>
       <c r="M267" t="n">
-        <v>0.440884</v>
+        <v>0.692765</v>
       </c>
       <c r="N267"/>
       <c r="O267" t="n">
-        <v>0.440884</v>
+        <v>0.692765</v>
       </c>
       <c r="P267" t="n">
         <v>1</v>
@@ -31375,7 +31366,7 @@
         <v>0</v>
       </c>
       <c r="Y267" t="n">
-        <v>0.440884</v>
+        <v>0.692765</v>
       </c>
       <c r="Z267" t="n">
         <v>0</v>
@@ -31405,7 +31396,7 @@
         <v>0</v>
       </c>
       <c r="AI267" t="n">
-        <v>0.440884</v>
+        <v>0.692765</v>
       </c>
       <c r="AJ267"/>
       <c r="AK267"/>
@@ -31414,7 +31405,7 @@
         <v>0</v>
       </c>
       <c r="AN267" t="n">
-        <v>191288</v>
+        <v>199696</v>
       </c>
     </row>
     <row r="268">
@@ -31431,29 +31422,33 @@
         <v>43</v>
       </c>
       <c r="E268" t="s">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="F268"/>
       <c r="G268" s="1" t="n">
-        <v>43732</v>
+        <v>43735</v>
       </c>
       <c r="H268" s="1" t="n">
-        <v>43762</v>
+        <v>43796</v>
       </c>
       <c r="I268" t="s">
         <v>480</v>
       </c>
       <c r="J268" t="s">
-        <v>481</v>
-      </c>
-      <c r="K268"/>
-      <c r="L268"/>
+        <v>52</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2.341409</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.812</v>
+      </c>
       <c r="M268" t="n">
-        <v>0.025463</v>
+        <v>2.883509</v>
       </c>
       <c r="N268"/>
       <c r="O268" t="n">
-        <v>0.025463</v>
+        <v>2.883509</v>
       </c>
       <c r="P268" t="n">
         <v>1</v>
@@ -31483,7 +31478,7 @@
         <v>0</v>
       </c>
       <c r="Y268" t="n">
-        <v>0.025463</v>
+        <v>2.883509</v>
       </c>
       <c r="Z268" t="n">
         <v>0</v>
@@ -31513,7 +31508,7 @@
         <v>0</v>
       </c>
       <c r="AI268" t="n">
-        <v>0.025463</v>
+        <v>2.883509</v>
       </c>
       <c r="AJ268"/>
       <c r="AK268"/>
@@ -31522,7 +31517,7 @@
         <v>0</v>
       </c>
       <c r="AN268" t="n">
-        <v>200109</v>
+        <v>199702</v>
       </c>
     </row>
     <row r="269">
@@ -31539,33 +31534,33 @@
         <v>43</v>
       </c>
       <c r="E269" t="s">
-        <v>50</v>
+        <v>448</v>
       </c>
       <c r="F269"/>
       <c r="G269" s="1" t="n">
-        <v>43734</v>
+        <v>43735</v>
       </c>
       <c r="H269" s="1" t="n">
-        <v>43745</v>
+        <v>43796</v>
       </c>
       <c r="I269" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J269" t="s">
         <v>52</v>
       </c>
       <c r="K269" t="n">
-        <v>0.43</v>
+        <v>0.364532</v>
       </c>
       <c r="L269" t="n">
-        <v>9.754</v>
+        <v>0.812</v>
       </c>
       <c r="M269" t="n">
-        <v>0.044084</v>
+        <v>0.448931</v>
       </c>
       <c r="N269"/>
       <c r="O269" t="n">
-        <v>0.044084</v>
+        <v>0.448931</v>
       </c>
       <c r="P269" t="n">
         <v>1</v>
@@ -31595,7 +31590,7 @@
         <v>0</v>
       </c>
       <c r="Y269" t="n">
-        <v>0.044084</v>
+        <v>0.448931</v>
       </c>
       <c r="Z269" t="n">
         <v>0</v>
@@ -31625,7 +31620,7 @@
         <v>0</v>
       </c>
       <c r="AI269" t="n">
-        <v>0.044084</v>
+        <v>0.448931</v>
       </c>
       <c r="AJ269"/>
       <c r="AK269"/>
@@ -31634,7 +31629,7 @@
         <v>0</v>
       </c>
       <c r="AN269" t="n">
-        <v>198750</v>
+        <v>199704</v>
       </c>
     </row>
     <row r="270">
@@ -31651,7 +31646,7 @@
         <v>43</v>
       </c>
       <c r="E270" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F270"/>
       <c r="G270" s="1" t="n">
@@ -31661,23 +31656,23 @@
         <v>43796</v>
       </c>
       <c r="I270" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J270" t="s">
         <v>52</v>
       </c>
       <c r="K270" t="n">
-        <v>0.562525</v>
+        <v>0.542358</v>
       </c>
       <c r="L270" t="n">
         <v>0.812</v>
       </c>
       <c r="M270" t="n">
-        <v>0.692765</v>
+        <v>0.667929</v>
       </c>
       <c r="N270"/>
       <c r="O270" t="n">
-        <v>0.692765</v>
+        <v>0.667929</v>
       </c>
       <c r="P270" t="n">
         <v>1</v>
@@ -31707,7 +31702,7 @@
         <v>0</v>
       </c>
       <c r="Y270" t="n">
-        <v>0.692765</v>
+        <v>0.667929</v>
       </c>
       <c r="Z270" t="n">
         <v>0</v>
@@ -31737,7 +31732,7 @@
         <v>0</v>
       </c>
       <c r="AI270" t="n">
-        <v>0.692765</v>
+        <v>0.667929</v>
       </c>
       <c r="AJ270"/>
       <c r="AK270"/>
@@ -31746,7 +31741,7 @@
         <v>0</v>
       </c>
       <c r="AN270" t="n">
-        <v>199696</v>
+        <v>199707</v>
       </c>
     </row>
     <row r="271">
@@ -31763,7 +31758,7 @@
         <v>43</v>
       </c>
       <c r="E271" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F271"/>
       <c r="G271" s="1" t="n">
@@ -31773,23 +31768,23 @@
         <v>43796</v>
       </c>
       <c r="I271" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J271" t="s">
         <v>52</v>
       </c>
       <c r="K271" t="n">
-        <v>2.341409</v>
+        <v>0.271175</v>
       </c>
       <c r="L271" t="n">
         <v>0.812</v>
       </c>
       <c r="M271" t="n">
-        <v>2.883509</v>
+        <v>0.333959</v>
       </c>
       <c r="N271"/>
       <c r="O271" t="n">
-        <v>2.883509</v>
+        <v>0.333959</v>
       </c>
       <c r="P271" t="n">
         <v>1</v>
@@ -31819,7 +31814,7 @@
         <v>0</v>
       </c>
       <c r="Y271" t="n">
-        <v>2.883509</v>
+        <v>0.333959</v>
       </c>
       <c r="Z271" t="n">
         <v>0</v>
@@ -31849,7 +31844,7 @@
         <v>0</v>
       </c>
       <c r="AI271" t="n">
-        <v>2.883509</v>
+        <v>0.333959</v>
       </c>
       <c r="AJ271"/>
       <c r="AK271"/>
@@ -31858,7 +31853,7 @@
         <v>0</v>
       </c>
       <c r="AN271" t="n">
-        <v>199702</v>
+        <v>199754</v>
       </c>
     </row>
     <row r="272">
@@ -31875,7 +31870,7 @@
         <v>43</v>
       </c>
       <c r="E272" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F272"/>
       <c r="G272" s="1" t="n">
@@ -31885,23 +31880,23 @@
         <v>43796</v>
       </c>
       <c r="I272" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J272" t="s">
         <v>52</v>
       </c>
       <c r="K272" t="n">
-        <v>0.364532</v>
+        <v>0.489144</v>
       </c>
       <c r="L272" t="n">
         <v>0.812</v>
       </c>
       <c r="M272" t="n">
-        <v>0.448931</v>
+        <v>0.602394</v>
       </c>
       <c r="N272"/>
       <c r="O272" t="n">
-        <v>0.448931</v>
+        <v>0.602394</v>
       </c>
       <c r="P272" t="n">
         <v>1</v>
@@ -31931,7 +31926,7 @@
         <v>0</v>
       </c>
       <c r="Y272" t="n">
-        <v>0.448931</v>
+        <v>0.602394</v>
       </c>
       <c r="Z272" t="n">
         <v>0</v>
@@ -31961,7 +31956,7 @@
         <v>0</v>
       </c>
       <c r="AI272" t="n">
-        <v>0.448931</v>
+        <v>0.602394</v>
       </c>
       <c r="AJ272"/>
       <c r="AK272"/>
@@ -31970,7 +31965,7 @@
         <v>0</v>
       </c>
       <c r="AN272" t="n">
-        <v>199704</v>
+        <v>199779</v>
       </c>
     </row>
     <row r="273">
@@ -31987,33 +31982,29 @@
         <v>43</v>
       </c>
       <c r="E273" t="s">
-        <v>449</v>
+        <v>74</v>
       </c>
       <c r="F273"/>
       <c r="G273" s="1" t="n">
-        <v>43735</v>
+        <v>43738</v>
       </c>
       <c r="H273" s="1" t="n">
-        <v>43796</v>
+        <v>43762</v>
       </c>
       <c r="I273" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J273" t="s">
-        <v>52</v>
-      </c>
-      <c r="K273" t="n">
-        <v>0.542358</v>
-      </c>
-      <c r="L273" t="n">
-        <v>0.812</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="K273"/>
+      <c r="L273"/>
       <c r="M273" t="n">
-        <v>0.667929</v>
+        <v>9.6</v>
       </c>
       <c r="N273"/>
       <c r="O273" t="n">
-        <v>0.667929</v>
+        <v>9.6</v>
       </c>
       <c r="P273" t="n">
         <v>1</v>
@@ -32043,7 +32034,7 @@
         <v>0</v>
       </c>
       <c r="Y273" t="n">
-        <v>0.667929</v>
+        <v>9.6</v>
       </c>
       <c r="Z273" t="n">
         <v>0</v>
@@ -32073,7 +32064,7 @@
         <v>0</v>
       </c>
       <c r="AI273" t="n">
-        <v>0.667929</v>
+        <v>9.6</v>
       </c>
       <c r="AJ273"/>
       <c r="AK273"/>
@@ -32082,7 +32073,7 @@
         <v>0</v>
       </c>
       <c r="AN273" t="n">
-        <v>199707</v>
+        <v>190552</v>
       </c>
     </row>
     <row r="274">
@@ -32099,33 +32090,29 @@
         <v>43</v>
       </c>
       <c r="E274" t="s">
-        <v>449</v>
+        <v>74</v>
       </c>
       <c r="F274"/>
       <c r="G274" s="1" t="n">
-        <v>43735</v>
+        <v>43738</v>
       </c>
       <c r="H274" s="1" t="n">
-        <v>43796</v>
+        <v>43762</v>
       </c>
       <c r="I274" t="s">
         <v>483</v>
       </c>
       <c r="J274" t="s">
-        <v>52</v>
-      </c>
-      <c r="K274" t="n">
-        <v>0.271175</v>
-      </c>
-      <c r="L274" t="n">
-        <v>0.812</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="K274"/>
+      <c r="L274"/>
       <c r="M274" t="n">
-        <v>0.333959</v>
+        <v>0.053294</v>
       </c>
       <c r="N274"/>
       <c r="O274" t="n">
-        <v>0.333959</v>
+        <v>0.053294</v>
       </c>
       <c r="P274" t="n">
         <v>1</v>
@@ -32155,7 +32142,7 @@
         <v>0</v>
       </c>
       <c r="Y274" t="n">
-        <v>0.333959</v>
+        <v>0.053294</v>
       </c>
       <c r="Z274" t="n">
         <v>0</v>
@@ -32185,7 +32172,7 @@
         <v>0</v>
       </c>
       <c r="AI274" t="n">
-        <v>0.333959</v>
+        <v>0.053294</v>
       </c>
       <c r="AJ274"/>
       <c r="AK274"/>
@@ -32194,7 +32181,7 @@
         <v>0</v>
       </c>
       <c r="AN274" t="n">
-        <v>199754</v>
+        <v>200110</v>
       </c>
     </row>
     <row r="275">
@@ -32211,33 +32198,29 @@
         <v>43</v>
       </c>
       <c r="E275" t="s">
-        <v>449</v>
+        <v>74</v>
       </c>
       <c r="F275"/>
       <c r="G275" s="1" t="n">
-        <v>43735</v>
+        <v>43738</v>
       </c>
       <c r="H275" s="1" t="n">
-        <v>43796</v>
+        <v>43762</v>
       </c>
       <c r="I275" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J275" t="s">
         <v>52</v>
       </c>
-      <c r="K275" t="n">
-        <v>0.489144</v>
-      </c>
-      <c r="L275" t="n">
-        <v>0.812</v>
-      </c>
+      <c r="K275"/>
+      <c r="L275"/>
       <c r="M275" t="n">
-        <v>0.602394</v>
+        <v>0.209516</v>
       </c>
       <c r="N275"/>
       <c r="O275" t="n">
-        <v>0.602394</v>
+        <v>0.209516</v>
       </c>
       <c r="P275" t="n">
         <v>1</v>
@@ -32267,7 +32250,7 @@
         <v>0</v>
       </c>
       <c r="Y275" t="n">
-        <v>0.602394</v>
+        <v>0.209516</v>
       </c>
       <c r="Z275" t="n">
         <v>0</v>
@@ -32297,7 +32280,7 @@
         <v>0</v>
       </c>
       <c r="AI275" t="n">
-        <v>0.602394</v>
+        <v>0.209516</v>
       </c>
       <c r="AJ275"/>
       <c r="AK275"/>
@@ -32306,7 +32289,7 @@
         <v>0</v>
       </c>
       <c r="AN275" t="n">
-        <v>199779</v>
+        <v>200111</v>
       </c>
     </row>
     <row r="276">
@@ -32330,22 +32313,22 @@
         <v>43738</v>
       </c>
       <c r="H276" s="1" t="n">
-        <v>43762</v>
+        <v>43790</v>
       </c>
       <c r="I276" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J276" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K276"/>
       <c r="L276"/>
       <c r="M276" t="n">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="N276"/>
       <c r="O276" t="n">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="P276" t="n">
         <v>1</v>
@@ -32375,7 +32358,7 @@
         <v>0</v>
       </c>
       <c r="Y276" t="n">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="Z276" t="n">
         <v>0</v>
@@ -32405,7 +32388,7 @@
         <v>0</v>
       </c>
       <c r="AI276" t="n">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="AJ276"/>
       <c r="AK276"/>
@@ -32414,7 +32397,7 @@
         <v>0</v>
       </c>
       <c r="AN276" t="n">
-        <v>190552</v>
+        <v>201784</v>
       </c>
     </row>
     <row r="277">
@@ -32431,29 +32414,33 @@
         <v>43</v>
       </c>
       <c r="E277" t="s">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="F277"/>
       <c r="G277" s="1" t="n">
-        <v>43738</v>
+        <v>43559</v>
       </c>
       <c r="H277" s="1" t="n">
-        <v>43762</v>
+        <v>43747</v>
       </c>
       <c r="I277" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="J277" t="s">
-        <v>487</v>
-      </c>
-      <c r="K277"/>
-      <c r="L277"/>
+        <v>52</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1.413</v>
+      </c>
       <c r="M277" t="n">
-        <v>0.053294</v>
+        <v>0.530786</v>
       </c>
       <c r="N277"/>
       <c r="O277" t="n">
-        <v>0.053294</v>
+        <v>0.530786</v>
       </c>
       <c r="P277" t="n">
         <v>1</v>
@@ -32483,10 +32470,10 @@
         <v>0</v>
       </c>
       <c r="Y277" t="n">
-        <v>0.053294</v>
+        <v>0</v>
       </c>
       <c r="Z277" t="n">
-        <v>0</v>
+        <v>0.530786</v>
       </c>
       <c r="AA277" t="n">
         <v>0</v>
@@ -32513,7 +32500,7 @@
         <v>0</v>
       </c>
       <c r="AI277" t="n">
-        <v>0.053294</v>
+        <v>0.530786</v>
       </c>
       <c r="AJ277"/>
       <c r="AK277"/>
@@ -32522,7 +32509,7 @@
         <v>0</v>
       </c>
       <c r="AN277" t="n">
-        <v>200110</v>
+        <v>198861</v>
       </c>
     </row>
     <row r="278">
@@ -32539,29 +32526,33 @@
         <v>43</v>
       </c>
       <c r="E278" t="s">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="F278"/>
       <c r="G278" s="1" t="n">
-        <v>43738</v>
+        <v>43559</v>
       </c>
       <c r="H278" s="1" t="n">
-        <v>43762</v>
+        <v>43747</v>
       </c>
       <c r="I278" t="s">
-        <v>488</v>
+        <v>182</v>
       </c>
       <c r="J278" t="s">
         <v>52</v>
       </c>
-      <c r="K278"/>
-      <c r="L278"/>
+      <c r="K278" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L278" t="n">
+        <v>1.413</v>
+      </c>
       <c r="M278" t="n">
-        <v>0.209516</v>
+        <v>0.353857</v>
       </c>
       <c r="N278"/>
       <c r="O278" t="n">
-        <v>0.209516</v>
+        <v>0.353857</v>
       </c>
       <c r="P278" t="n">
         <v>1</v>
@@ -32591,10 +32582,10 @@
         <v>0</v>
       </c>
       <c r="Y278" t="n">
-        <v>0.209516</v>
+        <v>0</v>
       </c>
       <c r="Z278" t="n">
-        <v>0</v>
+        <v>0.353857</v>
       </c>
       <c r="AA278" t="n">
         <v>0</v>
@@ -32621,7 +32612,7 @@
         <v>0</v>
       </c>
       <c r="AI278" t="n">
-        <v>0.209516</v>
+        <v>0.353857</v>
       </c>
       <c r="AJ278"/>
       <c r="AK278"/>
@@ -32630,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="AN278" t="n">
-        <v>200111</v>
+        <v>198862</v>
       </c>
     </row>
     <row r="279">
@@ -32647,29 +32638,33 @@
         <v>43</v>
       </c>
       <c r="E279" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="F279"/>
       <c r="G279" s="1" t="n">
-        <v>43738</v>
+        <v>43741</v>
       </c>
       <c r="H279" s="1" t="n">
-        <v>43790</v>
+        <v>43742</v>
       </c>
       <c r="I279" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J279" t="s">
-        <v>490</v>
-      </c>
-      <c r="K279"/>
-      <c r="L279"/>
+        <v>491</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.791137</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0.914</v>
+      </c>
       <c r="M279" t="n">
-        <v>1.5</v>
+        <v>0.865577</v>
       </c>
       <c r="N279"/>
       <c r="O279" t="n">
-        <v>1.5</v>
+        <v>0.865577</v>
       </c>
       <c r="P279" t="n">
         <v>1</v>
@@ -32699,10 +32694,10 @@
         <v>0</v>
       </c>
       <c r="Y279" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z279" t="n">
-        <v>0</v>
+        <v>0.865577</v>
       </c>
       <c r="AA279" t="n">
         <v>0</v>
@@ -32729,7 +32724,7 @@
         <v>0</v>
       </c>
       <c r="AI279" t="n">
-        <v>1.5</v>
+        <v>0.865577</v>
       </c>
       <c r="AJ279"/>
       <c r="AK279"/>
@@ -32738,7 +32733,7 @@
         <v>0</v>
       </c>
       <c r="AN279" t="n">
-        <v>201784</v>
+        <v>198675</v>
       </c>
     </row>
     <row r="280">
@@ -32755,14 +32750,14 @@
         <v>43</v>
       </c>
       <c r="E280" t="s">
-        <v>491</v>
+        <v>53</v>
       </c>
       <c r="F280"/>
       <c r="G280" s="1" t="n">
-        <v>43559</v>
+        <v>43753</v>
       </c>
       <c r="H280" s="1" t="n">
-        <v>43747</v>
+        <v>44055</v>
       </c>
       <c r="I280" t="s">
         <v>492</v>
@@ -32771,17 +32766,17 @@
         <v>52</v>
       </c>
       <c r="K280" t="n">
-        <v>0.75</v>
+        <v>0.935</v>
       </c>
       <c r="L280" t="n">
-        <v>1.413</v>
+        <v>0.812</v>
       </c>
       <c r="M280" t="n">
-        <v>0.530786</v>
+        <v>1.151478</v>
       </c>
       <c r="N280"/>
       <c r="O280" t="n">
-        <v>0.530786</v>
+        <v>1.151478</v>
       </c>
       <c r="P280" t="n">
         <v>1</v>
@@ -32814,7 +32809,7 @@
         <v>0</v>
       </c>
       <c r="Z280" t="n">
-        <v>0.530786</v>
+        <v>1.151478</v>
       </c>
       <c r="AA280" t="n">
         <v>0</v>
@@ -32841,7 +32836,7 @@
         <v>0</v>
       </c>
       <c r="AI280" t="n">
-        <v>0.530786</v>
+        <v>1.151478</v>
       </c>
       <c r="AJ280"/>
       <c r="AK280"/>
@@ -32850,7 +32845,7 @@
         <v>0</v>
       </c>
       <c r="AN280" t="n">
-        <v>198861</v>
+        <v>199561</v>
       </c>
     </row>
     <row r="281">
@@ -32867,33 +32862,33 @@
         <v>43</v>
       </c>
       <c r="E281" t="s">
-        <v>491</v>
+        <v>203</v>
       </c>
       <c r="F281"/>
       <c r="G281" s="1" t="n">
-        <v>43559</v>
+        <v>43699</v>
       </c>
       <c r="H281" s="1" t="n">
-        <v>43747</v>
+        <v>43756</v>
       </c>
       <c r="I281" t="s">
-        <v>182</v>
+        <v>493</v>
       </c>
       <c r="J281" t="s">
-        <v>52</v>
+        <v>494</v>
       </c>
       <c r="K281" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="L281" t="n">
-        <v>1.413</v>
+        <v>8.896</v>
       </c>
       <c r="M281" t="n">
-        <v>0.353857</v>
+        <v>0.78687</v>
       </c>
       <c r="N281"/>
       <c r="O281" t="n">
-        <v>0.353857</v>
+        <v>0.78687</v>
       </c>
       <c r="P281" t="n">
         <v>1</v>
@@ -32926,7 +32921,7 @@
         <v>0</v>
       </c>
       <c r="Z281" t="n">
-        <v>0.353857</v>
+        <v>0.78687</v>
       </c>
       <c r="AA281" t="n">
         <v>0</v>
@@ -32953,7 +32948,7 @@
         <v>0</v>
       </c>
       <c r="AI281" t="n">
-        <v>0.353857</v>
+        <v>0.78687</v>
       </c>
       <c r="AJ281"/>
       <c r="AK281"/>
@@ -32962,7 +32957,7 @@
         <v>0</v>
       </c>
       <c r="AN281" t="n">
-        <v>198862</v>
+        <v>199485</v>
       </c>
     </row>
     <row r="282">
@@ -32979,33 +32974,33 @@
         <v>43</v>
       </c>
       <c r="E282" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="F282"/>
       <c r="G282" s="1" t="n">
-        <v>43741</v>
+        <v>43774</v>
       </c>
       <c r="H282" s="1" t="n">
-        <v>43742</v>
+        <v>44189</v>
       </c>
       <c r="I282" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J282" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K282" t="n">
-        <v>0.791137</v>
+        <v>0.5</v>
       </c>
       <c r="L282" t="n">
-        <v>0.914</v>
+        <v>0.9</v>
       </c>
       <c r="M282" t="n">
-        <v>0.865577</v>
+        <v>0.555556</v>
       </c>
       <c r="N282"/>
       <c r="O282" t="n">
-        <v>0.865577</v>
+        <v>0.555556</v>
       </c>
       <c r="P282" t="n">
         <v>1</v>
@@ -33038,10 +33033,10 @@
         <v>0</v>
       </c>
       <c r="Z282" t="n">
-        <v>0.865577</v>
+        <v>0</v>
       </c>
       <c r="AA282" t="n">
-        <v>0</v>
+        <v>0.555556</v>
       </c>
       <c r="AB282" t="n">
         <v>0</v>
@@ -33065,7 +33060,7 @@
         <v>0</v>
       </c>
       <c r="AI282" t="n">
-        <v>0.865577</v>
+        <v>0.555556</v>
       </c>
       <c r="AJ282"/>
       <c r="AK282"/>
@@ -33074,7 +33069,7 @@
         <v>0</v>
       </c>
       <c r="AN282" t="n">
-        <v>198675</v>
+        <v>203104</v>
       </c>
     </row>
     <row r="283">
@@ -33091,33 +33086,29 @@
         <v>43</v>
       </c>
       <c r="E283" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F283"/>
       <c r="G283" s="1" t="n">
-        <v>43753</v>
+        <v>43775</v>
       </c>
       <c r="H283" s="1" t="n">
-        <v>44055</v>
+        <v>43811</v>
       </c>
       <c r="I283" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
-      </c>
-      <c r="K283" t="n">
-        <v>0.935</v>
-      </c>
-      <c r="L283" t="n">
-        <v>0.812</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="K283"/>
+      <c r="L283"/>
       <c r="M283" t="n">
-        <v>1.151478</v>
+        <v>0.000935</v>
       </c>
       <c r="N283"/>
       <c r="O283" t="n">
-        <v>1.151478</v>
+        <v>0.000935</v>
       </c>
       <c r="P283" t="n">
         <v>1</v>
@@ -33150,10 +33141,10 @@
         <v>0</v>
       </c>
       <c r="Z283" t="n">
-        <v>1.151478</v>
+        <v>0</v>
       </c>
       <c r="AA283" t="n">
-        <v>0</v>
+        <v>0.000935</v>
       </c>
       <c r="AB283" t="n">
         <v>0</v>
@@ -33177,7 +33168,7 @@
         <v>0</v>
       </c>
       <c r="AI283" t="n">
-        <v>1.151478</v>
+        <v>0.000935</v>
       </c>
       <c r="AJ283"/>
       <c r="AK283"/>
@@ -33186,7 +33177,7 @@
         <v>0</v>
       </c>
       <c r="AN283" t="n">
-        <v>199561</v>
+        <v>202861</v>
       </c>
     </row>
     <row r="284">
@@ -33203,33 +33194,33 @@
         <v>43</v>
       </c>
       <c r="E284" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="F284"/>
       <c r="G284" s="1" t="n">
-        <v>43699</v>
+        <v>43777</v>
       </c>
       <c r="H284" s="1" t="n">
-        <v>43756</v>
+        <v>43794</v>
       </c>
       <c r="I284" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J284" t="s">
-        <v>497</v>
+        <v>52</v>
       </c>
       <c r="K284" t="n">
-        <v>7</v>
+        <v>0.742</v>
       </c>
       <c r="L284" t="n">
-        <v>8.896</v>
+        <v>9.724</v>
       </c>
       <c r="M284" t="n">
-        <v>0.78687</v>
+        <v>0.076306</v>
       </c>
       <c r="N284"/>
       <c r="O284" t="n">
-        <v>0.78687</v>
+        <v>0.076306</v>
       </c>
       <c r="P284" t="n">
         <v>1</v>
@@ -33262,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="Z284" t="n">
-        <v>0.78687</v>
+        <v>0</v>
       </c>
       <c r="AA284" t="n">
-        <v>0</v>
+        <v>0.076306</v>
       </c>
       <c r="AB284" t="n">
         <v>0</v>
@@ -33289,7 +33280,7 @@
         <v>0</v>
       </c>
       <c r="AI284" t="n">
-        <v>0.78687</v>
+        <v>0.076306</v>
       </c>
       <c r="AJ284"/>
       <c r="AK284"/>
@@ -33298,7 +33289,7 @@
         <v>0</v>
       </c>
       <c r="AN284" t="n">
-        <v>199485</v>
+        <v>201843</v>
       </c>
     </row>
     <row r="285">
@@ -33315,33 +33306,29 @@
         <v>43</v>
       </c>
       <c r="E285" t="s">
-        <v>47</v>
+        <v>498</v>
       </c>
       <c r="F285"/>
       <c r="G285" s="1" t="n">
-        <v>43774</v>
+        <v>43803</v>
       </c>
       <c r="H285" s="1" t="n">
-        <v>44189</v>
+        <v>43812</v>
       </c>
       <c r="I285" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J285" t="s">
-        <v>499</v>
-      </c>
-      <c r="K285" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L285" t="n">
-        <v>0.9</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="K285"/>
+      <c r="L285"/>
       <c r="M285" t="n">
-        <v>0.555556</v>
+        <v>0.355</v>
       </c>
       <c r="N285"/>
       <c r="O285" t="n">
-        <v>0.555556</v>
+        <v>0.355</v>
       </c>
       <c r="P285" t="n">
         <v>1</v>
@@ -33377,10 +33364,10 @@
         <v>0</v>
       </c>
       <c r="AA285" t="n">
-        <v>0.555556</v>
+        <v>0</v>
       </c>
       <c r="AB285" t="n">
-        <v>0</v>
+        <v>0.355</v>
       </c>
       <c r="AC285" t="n">
         <v>0</v>
@@ -33401,7 +33388,7 @@
         <v>0</v>
       </c>
       <c r="AI285" t="n">
-        <v>0.555556</v>
+        <v>0.355</v>
       </c>
       <c r="AJ285"/>
       <c r="AK285"/>
@@ -33410,7 +33397,7 @@
         <v>0</v>
       </c>
       <c r="AN285" t="n">
-        <v>203104</v>
+        <v>202944</v>
       </c>
     </row>
     <row r="286">
@@ -33427,29 +33414,33 @@
         <v>43</v>
       </c>
       <c r="E286" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="F286"/>
       <c r="G286" s="1" t="n">
-        <v>43775</v>
+        <v>43808</v>
       </c>
       <c r="H286" s="1" t="n">
-        <v>43811</v>
+        <v>43816</v>
       </c>
       <c r="I286" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="J286" t="s">
-        <v>462</v>
-      </c>
-      <c r="K286"/>
-      <c r="L286"/>
+        <v>52</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0.909</v>
+      </c>
       <c r="M286" t="n">
-        <v>0.000935</v>
+        <v>0.220022</v>
       </c>
       <c r="N286"/>
       <c r="O286" t="n">
-        <v>0.000935</v>
+        <v>0.220022</v>
       </c>
       <c r="P286" t="n">
         <v>1</v>
@@ -33485,10 +33476,10 @@
         <v>0</v>
       </c>
       <c r="AA286" t="n">
-        <v>0.000935</v>
+        <v>0</v>
       </c>
       <c r="AB286" t="n">
-        <v>0</v>
+        <v>0.220022</v>
       </c>
       <c r="AC286" t="n">
         <v>0</v>
@@ -33509,7 +33500,7 @@
         <v>0</v>
       </c>
       <c r="AI286" t="n">
-        <v>0.000935</v>
+        <v>0.220022</v>
       </c>
       <c r="AJ286"/>
       <c r="AK286"/>
@@ -33518,7 +33509,7 @@
         <v>0</v>
       </c>
       <c r="AN286" t="n">
-        <v>202861</v>
+        <v>203046</v>
       </c>
     </row>
     <row r="287">
@@ -33535,33 +33526,29 @@
         <v>43</v>
       </c>
       <c r="E287" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F287"/>
       <c r="G287" s="1" t="n">
-        <v>43777</v>
+        <v>43809</v>
       </c>
       <c r="H287" s="1" t="n">
-        <v>43794</v>
+        <v>43811</v>
       </c>
       <c r="I287" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="J287" t="s">
         <v>52</v>
       </c>
-      <c r="K287" t="n">
-        <v>0.742</v>
-      </c>
-      <c r="L287" t="n">
-        <v>9.724</v>
-      </c>
+      <c r="K287"/>
+      <c r="L287"/>
       <c r="M287" t="n">
-        <v>0.076306</v>
+        <v>0.0066</v>
       </c>
       <c r="N287"/>
       <c r="O287" t="n">
-        <v>0.076306</v>
+        <v>0.0066</v>
       </c>
       <c r="P287" t="n">
         <v>1</v>
@@ -33597,10 +33584,10 @@
         <v>0</v>
       </c>
       <c r="AA287" t="n">
-        <v>0.076306</v>
+        <v>0</v>
       </c>
       <c r="AB287" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="AC287" t="n">
         <v>0</v>
@@ -33621,7 +33608,7 @@
         <v>0</v>
       </c>
       <c r="AI287" t="n">
-        <v>0.076306</v>
+        <v>0.0066</v>
       </c>
       <c r="AJ287"/>
       <c r="AK287"/>
@@ -33630,7 +33617,7 @@
         <v>0</v>
       </c>
       <c r="AN287" t="n">
-        <v>201843</v>
+        <v>202887</v>
       </c>
     </row>
     <row r="288">
@@ -33647,29 +33634,33 @@
         <v>43</v>
       </c>
       <c r="E288" t="s">
-        <v>501</v>
+        <v>91</v>
       </c>
       <c r="F288"/>
       <c r="G288" s="1" t="n">
-        <v>43803</v>
+        <v>43815</v>
       </c>
       <c r="H288" s="1" t="n">
-        <v>43812</v>
+        <v>43845</v>
       </c>
       <c r="I288" t="s">
         <v>502</v>
       </c>
       <c r="J288" t="s">
-        <v>503</v>
-      </c>
-      <c r="K288"/>
-      <c r="L288"/>
+        <v>52</v>
+      </c>
+      <c r="K288" t="n">
+        <v>47.995401</v>
+      </c>
+      <c r="L288" t="n">
+        <v>109.47</v>
+      </c>
       <c r="M288" t="n">
-        <v>0.355</v>
+        <v>0.438434</v>
       </c>
       <c r="N288"/>
       <c r="O288" t="n">
-        <v>0.355</v>
+        <v>0.438434</v>
       </c>
       <c r="P288" t="n">
         <v>1</v>
@@ -33708,7 +33699,7 @@
         <v>0</v>
       </c>
       <c r="AB288" t="n">
-        <v>0.355</v>
+        <v>0.438434</v>
       </c>
       <c r="AC288" t="n">
         <v>0</v>
@@ -33729,7 +33720,7 @@
         <v>0</v>
       </c>
       <c r="AI288" t="n">
-        <v>0.355</v>
+        <v>0.438434</v>
       </c>
       <c r="AJ288"/>
       <c r="AK288"/>
@@ -33738,7 +33729,7 @@
         <v>0</v>
       </c>
       <c r="AN288" t="n">
-        <v>202944</v>
+        <v>203899</v>
       </c>
     </row>
     <row r="289">
@@ -33755,33 +33746,33 @@
         <v>43</v>
       </c>
       <c r="E289" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="F289"/>
       <c r="G289" s="1" t="n">
-        <v>43808</v>
+        <v>43830</v>
       </c>
       <c r="H289" s="1" t="n">
-        <v>43816</v>
+        <v>44154</v>
       </c>
       <c r="I289" t="s">
+        <v>503</v>
+      </c>
+      <c r="J289" t="s">
         <v>504</v>
       </c>
-      <c r="J289" t="s">
-        <v>52</v>
-      </c>
       <c r="K289" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
-        <v>0.909</v>
+        <v>0.975</v>
       </c>
       <c r="M289" t="n">
-        <v>0.220022</v>
+        <v>0</v>
       </c>
       <c r="N289"/>
       <c r="O289" t="n">
-        <v>0.220022</v>
+        <v>0</v>
       </c>
       <c r="P289" t="n">
         <v>1</v>
@@ -33820,7 +33811,7 @@
         <v>0</v>
       </c>
       <c r="AB289" t="n">
-        <v>0.220022</v>
+        <v>0</v>
       </c>
       <c r="AC289" t="n">
         <v>0</v>
@@ -33841,7 +33832,7 @@
         <v>0</v>
       </c>
       <c r="AI289" t="n">
-        <v>0.220022</v>
+        <v>0</v>
       </c>
       <c r="AJ289"/>
       <c r="AK289"/>
@@ -33850,7 +33841,7 @@
         <v>0</v>
       </c>
       <c r="AN289" t="n">
-        <v>203046</v>
+        <v>203705</v>
       </c>
     </row>
     <row r="290">
@@ -33867,29 +33858,33 @@
         <v>43</v>
       </c>
       <c r="E290" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F290"/>
       <c r="G290" s="1" t="n">
-        <v>43809</v>
+        <v>43830</v>
       </c>
       <c r="H290" s="1" t="n">
-        <v>43811</v>
+        <v>44154</v>
       </c>
       <c r="I290" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="J290" t="s">
-        <v>52</v>
-      </c>
-      <c r="K290"/>
-      <c r="L290"/>
+        <v>504</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0.975</v>
+      </c>
       <c r="M290" t="n">
-        <v>0.0066</v>
+        <v>0.153846</v>
       </c>
       <c r="N290"/>
       <c r="O290" t="n">
-        <v>0.0066</v>
+        <v>0.153846</v>
       </c>
       <c r="P290" t="n">
         <v>1</v>
@@ -33928,7 +33923,7 @@
         <v>0</v>
       </c>
       <c r="AB290" t="n">
-        <v>0.0066</v>
+        <v>0.153846</v>
       </c>
       <c r="AC290" t="n">
         <v>0</v>
@@ -33949,7 +33944,7 @@
         <v>0</v>
       </c>
       <c r="AI290" t="n">
-        <v>0.0066</v>
+        <v>0.153846</v>
       </c>
       <c r="AJ290"/>
       <c r="AK290"/>
@@ -33958,7 +33953,7 @@
         <v>0</v>
       </c>
       <c r="AN290" t="n">
-        <v>202887</v>
+        <v>203706</v>
       </c>
     </row>
     <row r="291">
@@ -33975,33 +33970,33 @@
         <v>43</v>
       </c>
       <c r="E291" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F291"/>
       <c r="G291" s="1" t="n">
-        <v>43815</v>
+        <v>43830</v>
       </c>
       <c r="H291" s="1" t="n">
-        <v>43845</v>
+        <v>43840</v>
       </c>
       <c r="I291" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J291" t="s">
-        <v>52</v>
+        <v>507</v>
       </c>
       <c r="K291" t="n">
-        <v>47.995401</v>
+        <v>0.0186</v>
       </c>
       <c r="L291" t="n">
-        <v>109.47</v>
+        <v>0.975</v>
       </c>
       <c r="M291" t="n">
-        <v>0.438434</v>
+        <v>0.019077</v>
       </c>
       <c r="N291"/>
       <c r="O291" t="n">
-        <v>0.438434</v>
+        <v>0.019077</v>
       </c>
       <c r="P291" t="n">
         <v>1</v>
@@ -34040,7 +34035,7 @@
         <v>0</v>
       </c>
       <c r="AB291" t="n">
-        <v>0.438434</v>
+        <v>0.019077</v>
       </c>
       <c r="AC291" t="n">
         <v>0</v>
@@ -34061,7 +34056,7 @@
         <v>0</v>
       </c>
       <c r="AI291" t="n">
-        <v>0.438434</v>
+        <v>0.019077</v>
       </c>
       <c r="AJ291"/>
       <c r="AK291"/>
@@ -34070,7 +34065,7 @@
         <v>0</v>
       </c>
       <c r="AN291" t="n">
-        <v>203899</v>
+        <v>203787</v>
       </c>
     </row>
     <row r="292">
@@ -34097,23 +34092,23 @@
         <v>44154</v>
       </c>
       <c r="I292" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J292" t="s">
-        <v>507</v>
+        <v>52</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L292" t="n">
         <v>0.975</v>
       </c>
       <c r="M292" t="n">
-        <v>0</v>
+        <v>0.051282</v>
       </c>
       <c r="N292"/>
       <c r="O292" t="n">
-        <v>0</v>
+        <v>0.051282</v>
       </c>
       <c r="P292" t="n">
         <v>1</v>
@@ -34152,7 +34147,7 @@
         <v>0</v>
       </c>
       <c r="AB292" t="n">
-        <v>0</v>
+        <v>0.051282</v>
       </c>
       <c r="AC292" t="n">
         <v>0</v>
@@ -34173,7 +34168,7 @@
         <v>0</v>
       </c>
       <c r="AI292" t="n">
-        <v>0</v>
+        <v>0.051282</v>
       </c>
       <c r="AJ292"/>
       <c r="AK292"/>
@@ -34182,7 +34177,7 @@
         <v>0</v>
       </c>
       <c r="AN292" t="n">
-        <v>203705</v>
+        <v>203707</v>
       </c>
     </row>
     <row r="293">
@@ -34199,33 +34194,33 @@
         <v>43</v>
       </c>
       <c r="E293" t="s">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="F293"/>
       <c r="G293" s="1" t="n">
-        <v>43830</v>
+        <v>43872</v>
       </c>
       <c r="H293" s="1" t="n">
-        <v>44154</v>
+        <v>43875</v>
       </c>
       <c r="I293" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J293" t="s">
-        <v>507</v>
+        <v>52</v>
       </c>
       <c r="K293" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="L293" t="n">
-        <v>0.975</v>
+        <v>0.907</v>
       </c>
       <c r="M293" t="n">
-        <v>0.153846</v>
+        <v>0.033076</v>
       </c>
       <c r="N293"/>
       <c r="O293" t="n">
-        <v>0.153846</v>
+        <v>0.033076</v>
       </c>
       <c r="P293" t="n">
         <v>1</v>
@@ -34264,10 +34259,10 @@
         <v>0</v>
       </c>
       <c r="AB293" t="n">
-        <v>0.153846</v>
+        <v>0</v>
       </c>
       <c r="AC293" t="n">
-        <v>0</v>
+        <v>0.033076</v>
       </c>
       <c r="AD293" t="n">
         <v>0</v>
@@ -34285,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="AI293" t="n">
-        <v>0.153846</v>
+        <v>0.033076</v>
       </c>
       <c r="AJ293"/>
       <c r="AK293"/>
@@ -34294,7 +34289,7 @@
         <v>0</v>
       </c>
       <c r="AN293" t="n">
-        <v>203706</v>
+        <v>204679</v>
       </c>
     </row>
     <row r="294">
@@ -34311,33 +34306,33 @@
         <v>43</v>
       </c>
       <c r="E294" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F294"/>
       <c r="G294" s="1" t="n">
-        <v>43830</v>
+        <v>43920</v>
       </c>
       <c r="H294" s="1" t="n">
-        <v>43840</v>
+        <v>43923</v>
       </c>
       <c r="I294" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J294" t="s">
-        <v>510</v>
+        <v>52</v>
       </c>
       <c r="K294" t="n">
-        <v>0.0186</v>
+        <v>0.1</v>
       </c>
       <c r="L294" t="n">
-        <v>0.975</v>
+        <v>0.884</v>
       </c>
       <c r="M294" t="n">
-        <v>0.019077</v>
+        <v>0.113122</v>
       </c>
       <c r="N294"/>
       <c r="O294" t="n">
-        <v>0.019077</v>
+        <v>0.113122</v>
       </c>
       <c r="P294" t="n">
         <v>1</v>
@@ -34376,13 +34371,13 @@
         <v>0</v>
       </c>
       <c r="AB294" t="n">
-        <v>0.019077</v>
+        <v>0</v>
       </c>
       <c r="AC294" t="n">
         <v>0</v>
       </c>
       <c r="AD294" t="n">
-        <v>0</v>
+        <v>0.113122</v>
       </c>
       <c r="AE294" t="n">
         <v>0</v>
@@ -34397,7 +34392,7 @@
         <v>0</v>
       </c>
       <c r="AI294" t="n">
-        <v>0.019077</v>
+        <v>0.113122</v>
       </c>
       <c r="AJ294"/>
       <c r="AK294"/>
@@ -34406,7 +34401,7 @@
         <v>0</v>
       </c>
       <c r="AN294" t="n">
-        <v>203787</v>
+        <v>207296</v>
       </c>
     </row>
     <row r="295">
@@ -34423,33 +34418,33 @@
         <v>43</v>
       </c>
       <c r="E295" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F295"/>
       <c r="G295" s="1" t="n">
-        <v>43830</v>
+        <v>43920</v>
       </c>
       <c r="H295" s="1" t="n">
-        <v>44154</v>
+        <v>43923</v>
       </c>
       <c r="I295" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J295" t="s">
         <v>52</v>
       </c>
       <c r="K295" t="n">
-        <v>0.05</v>
+        <v>0.022503</v>
       </c>
       <c r="L295" t="n">
-        <v>0.975</v>
+        <v>0.884</v>
       </c>
       <c r="M295" t="n">
-        <v>0.051282</v>
+        <v>0.025456</v>
       </c>
       <c r="N295"/>
       <c r="O295" t="n">
-        <v>0.051282</v>
+        <v>0.025456</v>
       </c>
       <c r="P295" t="n">
         <v>1</v>
@@ -34488,13 +34483,13 @@
         <v>0</v>
       </c>
       <c r="AB295" t="n">
-        <v>0.051282</v>
+        <v>0</v>
       </c>
       <c r="AC295" t="n">
         <v>0</v>
       </c>
       <c r="AD295" t="n">
-        <v>0</v>
+        <v>0.025456</v>
       </c>
       <c r="AE295" t="n">
         <v>0</v>
@@ -34509,7 +34504,7 @@
         <v>0</v>
       </c>
       <c r="AI295" t="n">
-        <v>0.051282</v>
+        <v>0.025456</v>
       </c>
       <c r="AJ295"/>
       <c r="AK295"/>
@@ -34518,7 +34513,7 @@
         <v>0</v>
       </c>
       <c r="AN295" t="n">
-        <v>203707</v>
+        <v>207297</v>
       </c>
     </row>
     <row r="296">
@@ -34535,14 +34530,14 @@
         <v>43</v>
       </c>
       <c r="E296" t="s">
-        <v>512</v>
+        <v>74</v>
       </c>
       <c r="F296"/>
       <c r="G296" s="1" t="n">
-        <v>43872</v>
+        <v>43921</v>
       </c>
       <c r="H296" s="1" t="n">
-        <v>43875</v>
+        <v>44055</v>
       </c>
       <c r="I296" t="s">
         <v>513</v>
@@ -34550,18 +34545,14 @@
       <c r="J296" t="s">
         <v>52</v>
       </c>
-      <c r="K296" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L296" t="n">
-        <v>0.907</v>
-      </c>
+      <c r="K296"/>
+      <c r="L296"/>
       <c r="M296" t="n">
-        <v>0.033076</v>
+        <v>3.5</v>
       </c>
       <c r="N296"/>
       <c r="O296" t="n">
-        <v>0.033076</v>
+        <v>3.5</v>
       </c>
       <c r="P296" t="n">
         <v>1</v>
@@ -34603,10 +34594,10 @@
         <v>0</v>
       </c>
       <c r="AC296" t="n">
-        <v>0.033076</v>
+        <v>0</v>
       </c>
       <c r="AD296" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE296" t="n">
         <v>0</v>
@@ -34621,7 +34612,7 @@
         <v>0</v>
       </c>
       <c r="AI296" t="n">
-        <v>0.033076</v>
+        <v>3.5</v>
       </c>
       <c r="AJ296"/>
       <c r="AK296"/>
@@ -34630,7 +34621,7 @@
         <v>0</v>
       </c>
       <c r="AN296" t="n">
-        <v>204679</v>
+        <v>208899</v>
       </c>
     </row>
     <row r="297">
@@ -34647,14 +34638,14 @@
         <v>43</v>
       </c>
       <c r="E297" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F297"/>
       <c r="G297" s="1" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="H297" s="1" t="n">
-        <v>43923</v>
+        <v>44055</v>
       </c>
       <c r="I297" t="s">
         <v>514</v>
@@ -34662,18 +34653,14 @@
       <c r="J297" t="s">
         <v>52</v>
       </c>
-      <c r="K297" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L297" t="n">
-        <v>0.884</v>
-      </c>
+      <c r="K297"/>
+      <c r="L297"/>
       <c r="M297" t="n">
-        <v>0.113122</v>
+        <v>1.5</v>
       </c>
       <c r="N297"/>
       <c r="O297" t="n">
-        <v>0.113122</v>
+        <v>1.5</v>
       </c>
       <c r="P297" t="n">
         <v>1</v>
@@ -34718,7 +34705,7 @@
         <v>0</v>
       </c>
       <c r="AD297" t="n">
-        <v>0.113122</v>
+        <v>1.5</v>
       </c>
       <c r="AE297" t="n">
         <v>0</v>
@@ -34733,7 +34720,7 @@
         <v>0</v>
       </c>
       <c r="AI297" t="n">
-        <v>0.113122</v>
+        <v>1.5</v>
       </c>
       <c r="AJ297"/>
       <c r="AK297"/>
@@ -34742,7 +34729,7 @@
         <v>0</v>
       </c>
       <c r="AN297" t="n">
-        <v>207296</v>
+        <v>216815</v>
       </c>
     </row>
     <row r="298">
@@ -34759,33 +34746,33 @@
         <v>43</v>
       </c>
       <c r="E298" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F298"/>
       <c r="G298" s="1" t="n">
-        <v>43920</v>
+        <v>43938</v>
       </c>
       <c r="H298" s="1" t="n">
-        <v>43923</v>
+        <v>43944</v>
       </c>
       <c r="I298" t="s">
         <v>515</v>
       </c>
       <c r="J298" t="s">
-        <v>52</v>
+        <v>516</v>
       </c>
       <c r="K298" t="n">
-        <v>0.022503</v>
+        <v>0.9</v>
       </c>
       <c r="L298" t="n">
-        <v>0.884</v>
+        <v>0.916</v>
       </c>
       <c r="M298" t="n">
-        <v>0.025456</v>
+        <v>0.982533</v>
       </c>
       <c r="N298"/>
       <c r="O298" t="n">
-        <v>0.025456</v>
+        <v>0.982533</v>
       </c>
       <c r="P298" t="n">
         <v>1</v>
@@ -34830,10 +34817,10 @@
         <v>0</v>
       </c>
       <c r="AD298" t="n">
-        <v>0.025456</v>
+        <v>0</v>
       </c>
       <c r="AE298" t="n">
-        <v>0</v>
+        <v>0.982533</v>
       </c>
       <c r="AF298" t="n">
         <v>0</v>
@@ -34845,7 +34832,7 @@
         <v>0</v>
       </c>
       <c r="AI298" t="n">
-        <v>0.025456</v>
+        <v>0.982533</v>
       </c>
       <c r="AJ298"/>
       <c r="AK298"/>
@@ -34854,7 +34841,7 @@
         <v>0</v>
       </c>
       <c r="AN298" t="n">
-        <v>207297</v>
+        <v>208572</v>
       </c>
     </row>
     <row r="299">
@@ -34871,29 +34858,29 @@
         <v>43</v>
       </c>
       <c r="E299" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F299"/>
       <c r="G299" s="1" t="n">
-        <v>43921</v>
+        <v>43944</v>
       </c>
       <c r="H299" s="1" t="n">
-        <v>44055</v>
+        <v>44042</v>
       </c>
       <c r="I299" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J299" t="s">
-        <v>52</v>
+        <v>518</v>
       </c>
       <c r="K299"/>
       <c r="L299"/>
       <c r="M299" t="n">
-        <v>3.5</v>
+        <v>0.087736</v>
       </c>
       <c r="N299"/>
       <c r="O299" t="n">
-        <v>3.5</v>
+        <v>0.087736</v>
       </c>
       <c r="P299" t="n">
         <v>1</v>
@@ -34938,10 +34925,10 @@
         <v>0</v>
       </c>
       <c r="AD299" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AE299" t="n">
-        <v>0</v>
+        <v>0.087736</v>
       </c>
       <c r="AF299" t="n">
         <v>0</v>
@@ -34953,7 +34940,7 @@
         <v>0</v>
       </c>
       <c r="AI299" t="n">
-        <v>3.5</v>
+        <v>0.087736</v>
       </c>
       <c r="AJ299"/>
       <c r="AK299"/>
@@ -34962,7 +34949,7 @@
         <v>0</v>
       </c>
       <c r="AN299" t="n">
-        <v>208899</v>
+        <v>208744</v>
       </c>
     </row>
     <row r="300">
@@ -34979,29 +34966,29 @@
         <v>43</v>
       </c>
       <c r="E300" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F300"/>
       <c r="G300" s="1" t="n">
-        <v>43921</v>
+        <v>43944</v>
       </c>
       <c r="H300" s="1" t="n">
-        <v>44055</v>
+        <v>44042</v>
       </c>
       <c r="I300" t="s">
         <v>517</v>
       </c>
       <c r="J300" t="s">
-        <v>52</v>
+        <v>518</v>
       </c>
       <c r="K300"/>
       <c r="L300"/>
       <c r="M300" t="n">
-        <v>1.5</v>
+        <v>0.249712</v>
       </c>
       <c r="N300"/>
       <c r="O300" t="n">
-        <v>1.5</v>
+        <v>0.249712</v>
       </c>
       <c r="P300" t="n">
         <v>1</v>
@@ -35046,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="AD300" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE300" t="n">
-        <v>0</v>
+        <v>0.249712</v>
       </c>
       <c r="AF300" t="n">
         <v>0</v>
@@ -35061,7 +35048,7 @@
         <v>0</v>
       </c>
       <c r="AI300" t="n">
-        <v>1.5</v>
+        <v>0.249712</v>
       </c>
       <c r="AJ300"/>
       <c r="AK300"/>
@@ -35070,7 +35057,7 @@
         <v>0</v>
       </c>
       <c r="AN300" t="n">
-        <v>216815</v>
+        <v>208745</v>
       </c>
     </row>
     <row r="301">
@@ -35087,33 +35074,29 @@
         <v>43</v>
       </c>
       <c r="E301" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="F301"/>
       <c r="G301" s="1" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="H301" s="1" t="n">
-        <v>43944</v>
+        <v>44042</v>
       </c>
       <c r="I301" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J301" t="s">
-        <v>519</v>
-      </c>
-      <c r="K301" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L301" t="n">
-        <v>0.916</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="K301"/>
+      <c r="L301"/>
       <c r="M301" t="n">
-        <v>0.982533</v>
+        <v>0.3</v>
       </c>
       <c r="N301"/>
       <c r="O301" t="n">
-        <v>0.982533</v>
+        <v>0.3</v>
       </c>
       <c r="P301" t="n">
         <v>1</v>
@@ -35161,7 +35144,7 @@
         <v>0</v>
       </c>
       <c r="AE301" t="n">
-        <v>0.982533</v>
+        <v>0.3</v>
       </c>
       <c r="AF301" t="n">
         <v>0</v>
@@ -35173,7 +35156,7 @@
         <v>0</v>
       </c>
       <c r="AI301" t="n">
-        <v>0.982533</v>
+        <v>0.3</v>
       </c>
       <c r="AJ301"/>
       <c r="AK301"/>
@@ -35182,7 +35165,7 @@
         <v>0</v>
       </c>
       <c r="AN301" t="n">
-        <v>208572</v>
+        <v>208739</v>
       </c>
     </row>
     <row r="302">
@@ -35206,22 +35189,22 @@
         <v>43944</v>
       </c>
       <c r="H302" s="1" t="n">
-        <v>44042</v>
+        <v>44062</v>
       </c>
       <c r="I302" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J302" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K302"/>
       <c r="L302"/>
       <c r="M302" t="n">
-        <v>0.087736</v>
+        <v>1.726269</v>
       </c>
       <c r="N302"/>
       <c r="O302" t="n">
-        <v>0.087736</v>
+        <v>1.726269</v>
       </c>
       <c r="P302" t="n">
         <v>1</v>
@@ -35269,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="AE302" t="n">
-        <v>0.087736</v>
+        <v>1.726269</v>
       </c>
       <c r="AF302" t="n">
         <v>0</v>
@@ -35281,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="AI302" t="n">
-        <v>0.087736</v>
+        <v>1.726269</v>
       </c>
       <c r="AJ302"/>
       <c r="AK302"/>
@@ -35290,7 +35273,7 @@
         <v>0</v>
       </c>
       <c r="AN302" t="n">
-        <v>208744</v>
+        <v>208746</v>
       </c>
     </row>
     <row r="303">
@@ -35314,22 +35297,22 @@
         <v>43944</v>
       </c>
       <c r="H303" s="1" t="n">
-        <v>44042</v>
+        <v>44062</v>
       </c>
       <c r="I303" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J303" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K303"/>
       <c r="L303"/>
       <c r="M303" t="n">
-        <v>0.249712</v>
+        <v>0.874125</v>
       </c>
       <c r="N303"/>
       <c r="O303" t="n">
-        <v>0.249712</v>
+        <v>0.874125</v>
       </c>
       <c r="P303" t="n">
         <v>1</v>
@@ -35377,7 +35360,7 @@
         <v>0</v>
       </c>
       <c r="AE303" t="n">
-        <v>0.249712</v>
+        <v>0.874125</v>
       </c>
       <c r="AF303" t="n">
         <v>0</v>
@@ -35389,7 +35372,7 @@
         <v>0</v>
       </c>
       <c r="AI303" t="n">
-        <v>0.249712</v>
+        <v>0.874125</v>
       </c>
       <c r="AJ303"/>
       <c r="AK303"/>
@@ -35398,7 +35381,7 @@
         <v>0</v>
       </c>
       <c r="AN303" t="n">
-        <v>208745</v>
+        <v>208748</v>
       </c>
     </row>
     <row r="304">
@@ -35419,25 +35402,25 @@
       </c>
       <c r="F304"/>
       <c r="G304" s="1" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="H304" s="1" t="n">
-        <v>44042</v>
+        <v>44161</v>
       </c>
       <c r="I304" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J304" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K304"/>
       <c r="L304"/>
       <c r="M304" t="n">
-        <v>0.3</v>
+        <v>0.685165</v>
       </c>
       <c r="N304"/>
       <c r="O304" t="n">
-        <v>0.3</v>
+        <v>0.685165</v>
       </c>
       <c r="P304" t="n">
         <v>1</v>
@@ -35485,7 +35468,7 @@
         <v>0</v>
       </c>
       <c r="AE304" t="n">
-        <v>0.3</v>
+        <v>0.685165</v>
       </c>
       <c r="AF304" t="n">
         <v>0</v>
@@ -35497,7 +35480,7 @@
         <v>0</v>
       </c>
       <c r="AI304" t="n">
-        <v>0.3</v>
+        <v>0.685165</v>
       </c>
       <c r="AJ304"/>
       <c r="AK304"/>
@@ -35506,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="AN304" t="n">
-        <v>208739</v>
+        <v>208835</v>
       </c>
     </row>
     <row r="305">
@@ -35527,25 +35510,25 @@
       </c>
       <c r="F305"/>
       <c r="G305" s="1" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="H305" s="1" t="n">
-        <v>44062</v>
+        <v>44161</v>
       </c>
       <c r="I305" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J305" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K305"/>
       <c r="L305"/>
       <c r="M305" t="n">
-        <v>1.726269</v>
+        <v>0.154952</v>
       </c>
       <c r="N305"/>
       <c r="O305" t="n">
-        <v>1.726269</v>
+        <v>0.154952</v>
       </c>
       <c r="P305" t="n">
         <v>1</v>
@@ -35593,7 +35576,7 @@
         <v>0</v>
       </c>
       <c r="AE305" t="n">
-        <v>1.726269</v>
+        <v>0.154952</v>
       </c>
       <c r="AF305" t="n">
         <v>0</v>
@@ -35605,7 +35588,7 @@
         <v>0</v>
       </c>
       <c r="AI305" t="n">
-        <v>1.726269</v>
+        <v>0.154952</v>
       </c>
       <c r="AJ305"/>
       <c r="AK305"/>
@@ -35614,7 +35597,7 @@
         <v>0</v>
       </c>
       <c r="AN305" t="n">
-        <v>208746</v>
+        <v>208836</v>
       </c>
     </row>
     <row r="306">
@@ -35635,25 +35618,25 @@
       </c>
       <c r="F306"/>
       <c r="G306" s="1" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="H306" s="1" t="n">
-        <v>44062</v>
+        <v>44161</v>
       </c>
       <c r="I306" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J306" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K306"/>
       <c r="L306"/>
       <c r="M306" t="n">
-        <v>0.874125</v>
+        <v>0.11539</v>
       </c>
       <c r="N306"/>
       <c r="O306" t="n">
-        <v>0.874125</v>
+        <v>0.11539</v>
       </c>
       <c r="P306" t="n">
         <v>1</v>
@@ -35701,7 +35684,7 @@
         <v>0</v>
       </c>
       <c r="AE306" t="n">
-        <v>0.874125</v>
+        <v>0.11539</v>
       </c>
       <c r="AF306" t="n">
         <v>0</v>
@@ -35713,7 +35696,7 @@
         <v>0</v>
       </c>
       <c r="AI306" t="n">
-        <v>0.874125</v>
+        <v>0.11539</v>
       </c>
       <c r="AJ306"/>
       <c r="AK306"/>
@@ -35722,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="AN306" t="n">
-        <v>208748</v>
+        <v>208837</v>
       </c>
     </row>
     <row r="307">
@@ -35749,19 +35732,19 @@
         <v>44161</v>
       </c>
       <c r="I307" t="s">
+        <v>528</v>
+      </c>
+      <c r="J307" t="s">
         <v>527</v>
-      </c>
-      <c r="J307" t="s">
-        <v>528</v>
       </c>
       <c r="K307"/>
       <c r="L307"/>
       <c r="M307" t="n">
-        <v>0.685165</v>
+        <v>0.114246</v>
       </c>
       <c r="N307"/>
       <c r="O307" t="n">
-        <v>0.685165</v>
+        <v>0.114246</v>
       </c>
       <c r="P307" t="n">
         <v>1</v>
@@ -35809,7 +35792,7 @@
         <v>0</v>
       </c>
       <c r="AE307" t="n">
-        <v>0.685165</v>
+        <v>0.114246</v>
       </c>
       <c r="AF307" t="n">
         <v>0</v>
@@ -35821,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="AI307" t="n">
-        <v>0.685165</v>
+        <v>0.114246</v>
       </c>
       <c r="AJ307"/>
       <c r="AK307"/>
@@ -35830,7 +35813,7 @@
         <v>0</v>
       </c>
       <c r="AN307" t="n">
-        <v>208835</v>
+        <v>208838</v>
       </c>
     </row>
     <row r="308">
@@ -35851,10 +35834,10 @@
       </c>
       <c r="F308"/>
       <c r="G308" s="1" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="H308" s="1" t="n">
-        <v>44161</v>
+        <v>44042</v>
       </c>
       <c r="I308" t="s">
         <v>529</v>
@@ -35865,11 +35848,11 @@
       <c r="K308"/>
       <c r="L308"/>
       <c r="M308" t="n">
-        <v>0.154952</v>
+        <v>0.226495</v>
       </c>
       <c r="N308"/>
       <c r="O308" t="n">
-        <v>0.154952</v>
+        <v>0.226495</v>
       </c>
       <c r="P308" t="n">
         <v>1</v>
@@ -35917,7 +35900,7 @@
         <v>0</v>
       </c>
       <c r="AE308" t="n">
-        <v>0.154952</v>
+        <v>0.226495</v>
       </c>
       <c r="AF308" t="n">
         <v>0</v>
@@ -35929,7 +35912,7 @@
         <v>0</v>
       </c>
       <c r="AI308" t="n">
-        <v>0.154952</v>
+        <v>0.226495</v>
       </c>
       <c r="AJ308"/>
       <c r="AK308"/>
@@ -35938,7 +35921,7 @@
         <v>0</v>
       </c>
       <c r="AN308" t="n">
-        <v>208836</v>
+        <v>208743</v>
       </c>
     </row>
     <row r="309">
@@ -35955,29 +35938,29 @@
         <v>43</v>
       </c>
       <c r="E309" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F309"/>
       <c r="G309" s="1" t="n">
-        <v>43945</v>
+        <v>43958</v>
       </c>
       <c r="H309" s="1" t="n">
-        <v>44161</v>
+        <v>44034</v>
       </c>
       <c r="I309" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J309" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K309"/>
       <c r="L309"/>
       <c r="M309" t="n">
-        <v>0.11539</v>
+        <v>0.805021</v>
       </c>
       <c r="N309"/>
       <c r="O309" t="n">
-        <v>0.11539</v>
+        <v>0.805021</v>
       </c>
       <c r="P309" t="n">
         <v>1</v>
@@ -36025,10 +36008,10 @@
         <v>0</v>
       </c>
       <c r="AE309" t="n">
-        <v>0.11539</v>
+        <v>0</v>
       </c>
       <c r="AF309" t="n">
-        <v>0</v>
+        <v>0.805021</v>
       </c>
       <c r="AG309" t="n">
         <v>0</v>
@@ -36037,7 +36020,7 @@
         <v>0</v>
       </c>
       <c r="AI309" t="n">
-        <v>0.11539</v>
+        <v>0.805021</v>
       </c>
       <c r="AJ309"/>
       <c r="AK309"/>
@@ -36046,7 +36029,7 @@
         <v>0</v>
       </c>
       <c r="AN309" t="n">
-        <v>208837</v>
+        <v>215321</v>
       </c>
     </row>
     <row r="310">
@@ -36063,29 +36046,33 @@
         <v>43</v>
       </c>
       <c r="E310" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="F310"/>
       <c r="G310" s="1" t="n">
-        <v>43945</v>
+        <v>43962</v>
       </c>
       <c r="H310" s="1" t="n">
-        <v>44161</v>
+        <v>43963</v>
       </c>
       <c r="I310" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J310" t="s">
-        <v>530</v>
-      </c>
-      <c r="K310"/>
-      <c r="L310"/>
+        <v>534</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.921</v>
+      </c>
       <c r="M310" t="n">
-        <v>0.114246</v>
+        <v>0.977199</v>
       </c>
       <c r="N310"/>
       <c r="O310" t="n">
-        <v>0.114246</v>
+        <v>0.977199</v>
       </c>
       <c r="P310" t="n">
         <v>1</v>
@@ -36133,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="AE310" t="n">
-        <v>0.114246</v>
+        <v>0</v>
       </c>
       <c r="AF310" t="n">
-        <v>0</v>
+        <v>0.977199</v>
       </c>
       <c r="AG310" t="n">
         <v>0</v>
@@ -36145,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="AI310" t="n">
-        <v>0.114246</v>
+        <v>0.977199</v>
       </c>
       <c r="AJ310"/>
       <c r="AK310"/>
@@ -36154,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="AN310" t="n">
-        <v>208838</v>
+        <v>209953</v>
       </c>
     </row>
     <row r="311">
@@ -36171,29 +36158,33 @@
         <v>43</v>
       </c>
       <c r="E311" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="F311"/>
       <c r="G311" s="1" t="n">
-        <v>43944</v>
+        <v>43977</v>
       </c>
       <c r="H311" s="1" t="n">
-        <v>44042</v>
+        <v>44063</v>
       </c>
       <c r="I311" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J311" t="s">
-        <v>533</v>
-      </c>
-      <c r="K311"/>
-      <c r="L311"/>
+        <v>536</v>
+      </c>
+      <c r="K311" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0.921</v>
+      </c>
       <c r="M311" t="n">
-        <v>0.226495</v>
+        <v>1.737242</v>
       </c>
       <c r="N311"/>
       <c r="O311" t="n">
-        <v>0.226495</v>
+        <v>1.737242</v>
       </c>
       <c r="P311" t="n">
         <v>1</v>
@@ -36241,10 +36232,10 @@
         <v>0</v>
       </c>
       <c r="AE311" t="n">
-        <v>0.226495</v>
+        <v>0</v>
       </c>
       <c r="AF311" t="n">
-        <v>0</v>
+        <v>1.737242</v>
       </c>
       <c r="AG311" t="n">
         <v>0</v>
@@ -36253,7 +36244,7 @@
         <v>0</v>
       </c>
       <c r="AI311" t="n">
-        <v>0.226495</v>
+        <v>1.737242</v>
       </c>
       <c r="AJ311"/>
       <c r="AK311"/>
@@ -36262,7 +36253,7 @@
         <v>0</v>
       </c>
       <c r="AN311" t="n">
-        <v>208743</v>
+        <v>216331</v>
       </c>
     </row>
     <row r="312">
@@ -36279,29 +36270,29 @@
         <v>43</v>
       </c>
       <c r="E312" t="s">
-        <v>74</v>
+        <v>537</v>
       </c>
       <c r="F312"/>
       <c r="G312" s="1" t="n">
-        <v>43958</v>
+        <v>44021</v>
       </c>
       <c r="H312" s="1" t="n">
-        <v>44034</v>
+        <v>44075</v>
       </c>
       <c r="I312" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="J312" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K312"/>
       <c r="L312"/>
       <c r="M312" t="n">
-        <v>0.805021</v>
+        <v>0.389371</v>
       </c>
       <c r="N312"/>
       <c r="O312" t="n">
-        <v>0.805021</v>
+        <v>0.389371</v>
       </c>
       <c r="P312" t="n">
         <v>1</v>
@@ -36352,16 +36343,16 @@
         <v>0</v>
       </c>
       <c r="AF312" t="n">
-        <v>0.805021</v>
+        <v>0</v>
       </c>
       <c r="AG312" t="n">
-        <v>0</v>
+        <v>0.389371</v>
       </c>
       <c r="AH312" t="n">
         <v>0</v>
       </c>
       <c r="AI312" t="n">
-        <v>0.805021</v>
+        <v>0.389371</v>
       </c>
       <c r="AJ312"/>
       <c r="AK312"/>
@@ -36370,7 +36361,7 @@
         <v>0</v>
       </c>
       <c r="AN312" t="n">
-        <v>215321</v>
+        <v>214510</v>
       </c>
     </row>
     <row r="313">
@@ -36387,33 +36378,29 @@
         <v>43</v>
       </c>
       <c r="E313" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F313"/>
       <c r="G313" s="1" t="n">
-        <v>43962</v>
+        <v>44055</v>
       </c>
       <c r="H313" s="1" t="n">
-        <v>43963</v>
+        <v>44075</v>
       </c>
       <c r="I313" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="J313" t="s">
-        <v>537</v>
-      </c>
-      <c r="K313" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L313" t="n">
-        <v>0.921</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="K313"/>
+      <c r="L313"/>
       <c r="M313" t="n">
-        <v>0.977199</v>
+        <v>2.2</v>
       </c>
       <c r="N313"/>
       <c r="O313" t="n">
-        <v>0.977199</v>
+        <v>2.2</v>
       </c>
       <c r="P313" t="n">
         <v>1</v>
@@ -36464,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="AF313" t="n">
-        <v>0.977199</v>
+        <v>0</v>
       </c>
       <c r="AG313" t="n">
         <v>0</v>
       </c>
       <c r="AH313" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI313" t="n">
-        <v>0.977199</v>
+        <v>2.2</v>
       </c>
       <c r="AJ313"/>
       <c r="AK313"/>
@@ -36482,7 +36469,7 @@
         <v>0</v>
       </c>
       <c r="AN313" t="n">
-        <v>209953</v>
+        <v>216825</v>
       </c>
     </row>
     <row r="314">
@@ -36499,33 +36486,33 @@
         <v>43</v>
       </c>
       <c r="E314" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F314"/>
       <c r="G314" s="1" t="n">
-        <v>43977</v>
+        <v>44055</v>
       </c>
       <c r="H314" s="1" t="n">
-        <v>44063</v>
+        <v>44145</v>
       </c>
       <c r="I314" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="J314" t="s">
-        <v>539</v>
+        <v>52</v>
       </c>
       <c r="K314" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="L314" t="n">
-        <v>0.921</v>
+        <v>0.77</v>
       </c>
       <c r="M314" t="n">
-        <v>1.737242</v>
+        <v>0.38961</v>
       </c>
       <c r="N314"/>
       <c r="O314" t="n">
-        <v>1.737242</v>
+        <v>0.38961</v>
       </c>
       <c r="P314" t="n">
         <v>1</v>
@@ -36576,16 +36563,16 @@
         <v>0</v>
       </c>
       <c r="AF314" t="n">
-        <v>1.737242</v>
+        <v>0</v>
       </c>
       <c r="AG314" t="n">
         <v>0</v>
       </c>
       <c r="AH314" t="n">
-        <v>0</v>
+        <v>0.38961</v>
       </c>
       <c r="AI314" t="n">
-        <v>1.737242</v>
+        <v>0.38961</v>
       </c>
       <c r="AJ314"/>
       <c r="AK314"/>
@@ -36594,7 +36581,7 @@
         <v>0</v>
       </c>
       <c r="AN314" t="n">
-        <v>216331</v>
+        <v>216831</v>
       </c>
     </row>
     <row r="315">
@@ -36611,29 +36598,33 @@
         <v>43</v>
       </c>
       <c r="E315" t="s">
-        <v>540</v>
+        <v>53</v>
       </c>
       <c r="F315"/>
       <c r="G315" s="1" t="n">
-        <v>44021</v>
+        <v>44055</v>
       </c>
       <c r="H315" s="1" t="n">
-        <v>44075</v>
+        <v>44055</v>
       </c>
       <c r="I315" t="s">
         <v>541</v>
       </c>
       <c r="J315" t="s">
-        <v>542</v>
-      </c>
-      <c r="K315"/>
-      <c r="L315"/>
+        <v>52</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.77</v>
+      </c>
       <c r="M315" t="n">
-        <v>0.389371</v>
+        <v>0.38961</v>
       </c>
       <c r="N315"/>
       <c r="O315" t="n">
-        <v>0.389371</v>
+        <v>0.38961</v>
       </c>
       <c r="P315" t="n">
         <v>1</v>
@@ -36687,13 +36678,13 @@
         <v>0</v>
       </c>
       <c r="AG315" t="n">
-        <v>0.389371</v>
+        <v>0</v>
       </c>
       <c r="AH315" t="n">
-        <v>0</v>
+        <v>0.38961</v>
       </c>
       <c r="AI315" t="n">
-        <v>0.389371</v>
+        <v>0.38961</v>
       </c>
       <c r="AJ315"/>
       <c r="AK315"/>
@@ -36702,7 +36693,7 @@
         <v>0</v>
       </c>
       <c r="AN315" t="n">
-        <v>214510</v>
+        <v>216832</v>
       </c>
     </row>
     <row r="316">
@@ -36719,29 +36710,29 @@
         <v>43</v>
       </c>
       <c r="E316" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F316"/>
       <c r="G316" s="1" t="n">
-        <v>44055</v>
+        <v>44063</v>
       </c>
       <c r="H316" s="1" t="n">
-        <v>44075</v>
+        <v>44154</v>
       </c>
       <c r="I316" t="s">
+        <v>542</v>
+      </c>
+      <c r="J316" t="s">
         <v>543</v>
-      </c>
-      <c r="J316" t="s">
-        <v>411</v>
       </c>
       <c r="K316"/>
       <c r="L316"/>
       <c r="M316" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="N316"/>
       <c r="O316" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="P316" t="n">
         <v>1</v>
@@ -36798,10 +36789,10 @@
         <v>0</v>
       </c>
       <c r="AH316" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AI316" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AJ316"/>
       <c r="AK316"/>
@@ -36810,338 +36801,6 @@
         <v>0</v>
       </c>
       <c r="AN316" t="n">
-        <v>216825</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>40</v>
-      </c>
-      <c r="B317" t="s">
-        <v>41</v>
-      </c>
-      <c r="C317" t="s">
-        <v>42</v>
-      </c>
-      <c r="D317" t="s">
-        <v>43</v>
-      </c>
-      <c r="E317" t="s">
-        <v>53</v>
-      </c>
-      <c r="F317"/>
-      <c r="G317" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="H317" s="1" t="n">
-        <v>44145</v>
-      </c>
-      <c r="I317" t="s">
-        <v>544</v>
-      </c>
-      <c r="J317" t="s">
-        <v>52</v>
-      </c>
-      <c r="K317" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L317" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M317" t="n">
-        <v>0.38961</v>
-      </c>
-      <c r="N317"/>
-      <c r="O317" t="n">
-        <v>0.38961</v>
-      </c>
-      <c r="P317" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q317" t="n">
-        <v>0</v>
-      </c>
-      <c r="R317" t="n">
-        <v>0</v>
-      </c>
-      <c r="S317" t="n">
-        <v>0</v>
-      </c>
-      <c r="T317" t="n">
-        <v>0</v>
-      </c>
-      <c r="U317" t="n">
-        <v>0</v>
-      </c>
-      <c r="V317" t="n">
-        <v>0</v>
-      </c>
-      <c r="W317" t="n">
-        <v>0</v>
-      </c>
-      <c r="X317" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y317" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH317" t="n">
-        <v>0.38961</v>
-      </c>
-      <c r="AI317" t="n">
-        <v>0.38961</v>
-      </c>
-      <c r="AJ317"/>
-      <c r="AK317"/>
-      <c r="AL317"/>
-      <c r="AM317" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN317" t="n">
-        <v>216831</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>40</v>
-      </c>
-      <c r="B318" t="s">
-        <v>41</v>
-      </c>
-      <c r="C318" t="s">
-        <v>42</v>
-      </c>
-      <c r="D318" t="s">
-        <v>43</v>
-      </c>
-      <c r="E318" t="s">
-        <v>53</v>
-      </c>
-      <c r="F318"/>
-      <c r="G318" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="H318" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="I318" t="s">
-        <v>544</v>
-      </c>
-      <c r="J318" t="s">
-        <v>52</v>
-      </c>
-      <c r="K318" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L318" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M318" t="n">
-        <v>0.38961</v>
-      </c>
-      <c r="N318"/>
-      <c r="O318" t="n">
-        <v>0.38961</v>
-      </c>
-      <c r="P318" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q318" t="n">
-        <v>0</v>
-      </c>
-      <c r="R318" t="n">
-        <v>0</v>
-      </c>
-      <c r="S318" t="n">
-        <v>0</v>
-      </c>
-      <c r="T318" t="n">
-        <v>0</v>
-      </c>
-      <c r="U318" t="n">
-        <v>0</v>
-      </c>
-      <c r="V318" t="n">
-        <v>0</v>
-      </c>
-      <c r="W318" t="n">
-        <v>0</v>
-      </c>
-      <c r="X318" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y318" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH318" t="n">
-        <v>0.38961</v>
-      </c>
-      <c r="AI318" t="n">
-        <v>0.38961</v>
-      </c>
-      <c r="AJ318"/>
-      <c r="AK318"/>
-      <c r="AL318"/>
-      <c r="AM318" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN318" t="n">
-        <v>216832</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>40</v>
-      </c>
-      <c r="B319" t="s">
-        <v>41</v>
-      </c>
-      <c r="C319" t="s">
-        <v>42</v>
-      </c>
-      <c r="D319" t="s">
-        <v>43</v>
-      </c>
-      <c r="E319" t="s">
-        <v>74</v>
-      </c>
-      <c r="F319"/>
-      <c r="G319" s="1" t="n">
-        <v>44063</v>
-      </c>
-      <c r="H319" s="1" t="n">
-        <v>44154</v>
-      </c>
-      <c r="I319" t="s">
-        <v>545</v>
-      </c>
-      <c r="J319" t="s">
-        <v>546</v>
-      </c>
-      <c r="K319"/>
-      <c r="L319"/>
-      <c r="M319" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N319"/>
-      <c r="O319" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P319" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q319" t="n">
-        <v>0</v>
-      </c>
-      <c r="R319" t="n">
-        <v>0</v>
-      </c>
-      <c r="S319" t="n">
-        <v>0</v>
-      </c>
-      <c r="T319" t="n">
-        <v>0</v>
-      </c>
-      <c r="U319" t="n">
-        <v>0</v>
-      </c>
-      <c r="V319" t="n">
-        <v>0</v>
-      </c>
-      <c r="W319" t="n">
-        <v>0</v>
-      </c>
-      <c r="X319" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y319" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH319" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AI319" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ319"/>
-      <c r="AK319"/>
-      <c r="AL319"/>
-      <c r="AM319" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN319" t="n">
         <v>222961</v>
       </c>
     </row>

--- a/output/Mozambique_formatted.xlsx
+++ b/output/Mozambique_formatted.xlsx
@@ -27226,7 +27226,7 @@
       <c r="AK229"/>
       <c r="AL229"/>
       <c r="AM229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN229" t="n">
         <v>190557</v>
